--- a/unitTestData/element/structureLibrary.xlsx
+++ b/unitTestData/element/structureLibrary.xlsx
@@ -8,22 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cloudmappr.sharepoint.com/sites/WorkBreakdownPlanner/Shared Documents/atlas/unitTestData/element/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17098250-DC30-448D-88DD-1E489ABBE8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{17098250-DC30-448D-88DD-1E489ABBE8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EEF738A5-9B74-4F53-A76D-06D47C5016E3}"/>
   <bookViews>
-    <workbookView xWindow="30360" yWindow="-1058" windowWidth="19170" windowHeight="10103" xr2:uid="{76474AB1-4EE1-44BA-A9FE-86B8ED37A37A}"/>
+    <workbookView xWindow="28702" yWindow="-2280" windowWidth="28995" windowHeight="15675" xr2:uid="{76474AB1-4EE1-44BA-A9FE-86B8ED37A37A}"/>
   </bookViews>
   <sheets>
     <sheet name="structureLibrary" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">structureLibrary!$A$1:$C$2355</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">structureLibrary!$A$1:$C$2893</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -6811,8 +6824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{395951D0-D528-4A2E-A699-B4DB2F0E81E2}">
   <dimension ref="A1:XFD2893"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1997" sqref="B1997"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -6833,7 +6846,7 @@
         <v>1</v>
       </c>
       <c r="L1" t="s">
-        <v>1422</v>
+        <v>1119</v>
       </c>
       <c r="M1" t="s">
         <v>1963</v>
@@ -6939,8 +6952,8 @@
         <v>7</v>
       </c>
       <c r="M7" t="str" cm="1">
-        <f t="array" ref="M7:M404">REPT("#",_xlfn._xlws.FILTER(B:B,A:A=L$1))&amp;" "&amp;_xlfn._xlws.FILTER(C:C,A:A=L$1)</f>
-        <v># Level 1 Element 001</v>
+        <f t="array" ref="M7:M84">REPT("#",_xlfn._xlws.FILTER(B:B,A:A=L$1))&amp;" "&amp;_xlfn._xlws.FILTER(C:C,A:A=L$1)</f>
+        <v># WBS for Process Improvement Project</v>
       </c>
       <c r="XFD7" t="str">
         <v>Strategic Missile System</v>
@@ -6957,7 +6970,7 @@
         <v>8</v>
       </c>
       <c r="M8" t="str">
-        <v>## Level 2 Element 002</v>
+        <v>## Phase 1:  Research and Recommendations</v>
       </c>
       <c r="XFD8" t="str">
         <v>Environmental Remediation</v>
@@ -6974,7 +6987,7 @@
         <v>9</v>
       </c>
       <c r="M9" t="str">
-        <v>### Level 3 Element 003</v>
+        <v>### Phase 1 Charter</v>
       </c>
       <c r="XFD9" t="str">
         <v>Sea System</v>
@@ -6991,7 +7004,7 @@
         <v>10</v>
       </c>
       <c r="M10" t="str">
-        <v>### Level 3 Element 004</v>
+        <v>### Project Management Plans for Phase 1</v>
       </c>
       <c r="XFD10" t="str">
         <v>Space System</v>
@@ -7008,7 +7021,7 @@
         <v>11</v>
       </c>
       <c r="M11" t="str">
-        <v>### Level 3 Element 005</v>
+        <v>### Research</v>
       </c>
       <c r="XFD11" t="str">
         <v>Design/Build Project</v>
@@ -7025,7 +7038,7 @@
         <v>12</v>
       </c>
       <c r="M12" t="str">
-        <v>### Level 3 Element 006</v>
+        <v>#### Documentation of the "State of the Art"</v>
       </c>
       <c r="XFD12" t="str">
         <v>Ground Vehicle</v>
@@ -7042,7 +7055,7 @@
         <v>13</v>
       </c>
       <c r="M13" t="str">
-        <v>## Level 2 Element 007</v>
+        <v>##### Document Search</v>
       </c>
       <c r="XFD13" t="str">
         <v>Unmanned Maritime System</v>
@@ -7059,7 +7072,7 @@
         <v>14</v>
       </c>
       <c r="M14" t="str">
-        <v>### Level 3 Element 008</v>
+        <v>##### Consultation with Experts</v>
       </c>
       <c r="XFD14" t="str">
         <v>Launch Vehicle</v>
@@ -7076,7 +7089,7 @@
         <v>15</v>
       </c>
       <c r="M15" t="str">
-        <v>#### Level 4 Element 009</v>
+        <v>##### Benchmarking</v>
       </c>
       <c r="XFD15" t="str">
         <v>Information/Business System</v>
@@ -7093,7 +7106,7 @@
         <v>16</v>
       </c>
       <c r="M16" t="str">
-        <v>#### Level 4 Element 010</v>
+        <v>##### Product and Software Review</v>
       </c>
       <c r="XFD16" t="str">
         <v>Sustainment</v>
@@ -7110,7 +7123,7 @@
         <v>17</v>
       </c>
       <c r="M17" t="str">
-        <v>#### Level 4 Element 011</v>
+        <v>#### Documentation of the Current State in the Subject Organization</v>
       </c>
       <c r="XFD17" t="str">
         <v>Research Project</v>
@@ -7127,7 +7140,7 @@
         <v>18</v>
       </c>
       <c r="M18" t="str">
-        <v>#### Level 4 Element 012</v>
+        <v>##### Interviews</v>
       </c>
       <c r="XFD18" t="str">
         <v>Production Platform</v>
@@ -7144,7 +7157,7 @@
         <v>19</v>
       </c>
       <c r="M19" t="str">
-        <v>### Level 3 Element 013</v>
+        <v>##### Surveys</v>
       </c>
       <c r="XFD19" t="str">
         <v>New Compound</v>
@@ -7161,7 +7174,7 @@
         <v>20</v>
       </c>
       <c r="M20" t="str">
-        <v>#### Level 4 Element 014</v>
+        <v>##### Statistical Analysis</v>
       </c>
       <c r="XFD20" t="str">
         <v>Process Improvement</v>
@@ -7178,7 +7191,7 @@
         <v>21</v>
       </c>
       <c r="M21" t="str">
-        <v>##### Level 5 Element 015</v>
+        <v>##### Flow Charts of Current Processes</v>
       </c>
       <c r="XFD21" t="str">
         <v>Factory Construction</v>
@@ -7195,7 +7208,7 @@
         <v>22</v>
       </c>
       <c r="M22" t="str">
-        <v>##### Level 5 Element 016</v>
+        <v>### Identification of Improvement Needs</v>
       </c>
       <c r="XFD22" t="str">
         <v>Outsourcing Project</v>
@@ -7212,7 +7225,7 @@
         <v>23</v>
       </c>
       <c r="M23" t="str">
-        <v>##### Level 5 Element 017</v>
+        <v>#### Determination of Desired State (Vision Statement)</v>
       </c>
       <c r="XFD23" t="str">
         <v>Software Development</v>
@@ -7229,7 +7242,7 @@
         <v>24</v>
       </c>
       <c r="M24" t="str">
-        <v>##### Level 5 Element 018</v>
+        <v>#### Gap Analysis</v>
       </c>
       <c r="XFD24" t="str">
         <v>Telecom</v>
@@ -7246,7 +7259,7 @@
         <v>25</v>
       </c>
       <c r="M25" t="str">
-        <v>#### Level 4 Element 019</v>
+        <v xml:space="preserve">#### Most Likely Solutions </v>
       </c>
       <c r="XFD25" t="str">
         <v>Web Design</v>
@@ -7263,7 +7276,7 @@
         <v>26</v>
       </c>
       <c r="M26" t="str">
-        <v>##### Level 5 Element 020</v>
+        <v>##### Brainstorming</v>
       </c>
       <c r="XFD26" t="str">
         <v>Human Languages</v>
@@ -7280,7 +7293,7 @@
         <v>27</v>
       </c>
       <c r="M27" t="str">
-        <v>##### Level 5 Element 021</v>
+        <v>##### Statistical Analysis</v>
       </c>
       <c r="XFD27" t="str">
         <v>Width Gauge</v>
@@ -7297,7 +7310,7 @@
         <v>28</v>
       </c>
       <c r="M28" t="str">
-        <v>##### Level 5 Element 022</v>
+        <v>##### Flow Charts of Desired Processes</v>
       </c>
     </row>
     <row r="29" spans="1:13 16384:16384" x14ac:dyDescent="0.5">
@@ -7311,7 +7324,7 @@
         <v>29</v>
       </c>
       <c r="M29" t="str">
-        <v>##### Level 5 Element 023</v>
+        <v>### Recommendations</v>
       </c>
     </row>
     <row r="30" spans="1:13 16384:16384" x14ac:dyDescent="0.5">
@@ -7325,7 +7338,7 @@
         <v>30</v>
       </c>
       <c r="M30" t="str">
-        <v>##### Level 5 Element 024</v>
+        <v>#### Recommendation 1</v>
       </c>
     </row>
     <row r="31" spans="1:13 16384:16384" x14ac:dyDescent="0.5">
@@ -7339,7 +7352,7 @@
         <v>31</v>
       </c>
       <c r="M31" t="str">
-        <v>##### Level 5 Element 025</v>
+        <v>##### Draft Charter</v>
       </c>
     </row>
     <row r="32" spans="1:13 16384:16384" x14ac:dyDescent="0.5">
@@ -7353,7 +7366,7 @@
         <v>32</v>
       </c>
       <c r="M32" t="str">
-        <v>#### Level 4 Element 026</v>
+        <v>##### Estimated Cost</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.5">
@@ -7367,7 +7380,7 @@
         <v>33</v>
       </c>
       <c r="M33" t="str">
-        <v>##### Level 5 Element 027</v>
+        <v>#### Recommendation 2</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.5">
@@ -7381,7 +7394,7 @@
         <v>34</v>
       </c>
       <c r="M34" t="str">
-        <v>##### Level 5 Element 028</v>
+        <v>##### Draft Charter</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.5">
@@ -7395,7 +7408,7 @@
         <v>35</v>
       </c>
       <c r="M35" t="str">
-        <v>##### Level 5 Element 029</v>
+        <v>##### Estimated Cost</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.5">
@@ -7409,7 +7422,7 @@
         <v>36</v>
       </c>
       <c r="M36" t="str">
-        <v>##### Level 5 Element 030</v>
+        <v>#### Recommendation 3</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.5">
@@ -7423,7 +7436,7 @@
         <v>37</v>
       </c>
       <c r="M37" t="str">
-        <v>##### Level 5 Element 031</v>
+        <v>##### Draft Charter</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.5">
@@ -7437,7 +7450,7 @@
         <v>38</v>
       </c>
       <c r="M38" t="str">
-        <v>##### Level 5 Element 032</v>
+        <v>##### Estimated Cost</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.5">
@@ -7451,7 +7464,7 @@
         <v>39</v>
       </c>
       <c r="M39" t="str">
-        <v>##### Level 5 Element 033</v>
+        <v>## Phase 2: Implementation of Approved Recommendation (This portion of the WBS is repeated for each approved recommendation)</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.5">
@@ -7465,7 +7478,7 @@
         <v>40</v>
       </c>
       <c r="M40" t="str">
-        <v>##### Level 5 Element 034</v>
+        <v>### Recommendation x Charter (approved and amended version of the draft from 1.1.5)</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.5">
@@ -7479,7 +7492,7 @@
         <v>41</v>
       </c>
       <c r="M41" t="str">
-        <v>##### Level 5 Element 035</v>
+        <v>### Project Management Plans for Phase 2 (seven plans</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.5">
@@ -7493,7 +7506,7 @@
         <v>42</v>
       </c>
       <c r="M42" t="str">
-        <v>#### Level 4 Element 036</v>
+        <v>### Process Documentation</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.5">
@@ -7507,7 +7520,7 @@
         <v>43</v>
       </c>
       <c r="M43" t="str">
-        <v>##### Level 5 Element 037</v>
+        <v>#### Draft process (policy</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.5">
@@ -7521,7 +7534,7 @@
         <v>44</v>
       </c>
       <c r="M44" t="str">
-        <v>##### Level 5 Element 038</v>
+        <v>#### Review</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.5">
@@ -7535,7 +7548,7 @@
         <v>45</v>
       </c>
       <c r="M45" t="str">
-        <v>##### Level 5 Element 039</v>
+        <v>#### Revision (1.2.3.2 and 1.2.3.3 are iterative—repeat until there is consensus)</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.5">
@@ -7549,7 +7562,7 @@
         <v>46</v>
       </c>
       <c r="M46" t="str">
-        <v>##### Level 5 Element 040</v>
+        <v>#### Publication</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.5">
@@ -7563,7 +7576,7 @@
         <v>47</v>
       </c>
       <c r="M47" t="str">
-        <v>##### Level 5 Element 041</v>
+        <v>##### Hardcopy</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.5">
@@ -7577,7 +7590,7 @@
         <v>48</v>
       </c>
       <c r="M48" t="str">
-        <v>##### Level 5 Element 042</v>
+        <v>##### Internet or Intranet</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.5">
@@ -7591,7 +7604,7 @@
         <v>49</v>
       </c>
       <c r="M49" t="str">
-        <v>##### Level 5 Element 043</v>
+        <v>##### Other</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.5">
@@ -7605,7 +7618,7 @@
         <v>50</v>
       </c>
       <c r="M50" t="str">
-        <v>##### Level 5 Element 044</v>
+        <v>### Tools (software</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.5">
@@ -7619,7 +7632,7 @@
         <v>51</v>
       </c>
       <c r="M51" t="str">
-        <v>##### Level 5 Element 045</v>
+        <v>#### Design</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.5">
@@ -7633,7 +7646,7 @@
         <v>52</v>
       </c>
       <c r="M52" t="str">
-        <v>##### Level 5 Element 046</v>
+        <v>#### Build</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.5">
@@ -7647,7 +7660,7 @@
         <v>53</v>
       </c>
       <c r="M53" t="str">
-        <v>##### Level 5 Element 047</v>
+        <v>#### Test</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.5">
@@ -7661,7 +7674,7 @@
         <v>54</v>
       </c>
       <c r="M54" t="str">
-        <v>##### Level 5 Element 048</v>
+        <v>#### Revision (1.2.4.3 and 1.2.4.4 are iterative—repeat until the product meets its goals)</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.5">
@@ -7675,7 +7688,7 @@
         <v>55</v>
       </c>
       <c r="M55" t="str">
-        <v>##### Level 5 Element 049</v>
+        <v>#### Implementation</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.5">
@@ -7689,7 +7702,7 @@
         <v>56</v>
       </c>
       <c r="M56" t="str">
-        <v>##### Level 5 Element 050</v>
+        <v>### Training</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.5">
@@ -7703,7 +7716,7 @@
         <v>57</v>
       </c>
       <c r="M57" t="str">
-        <v>#### Level 4 Element 051</v>
+        <v>#### Instructors</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.5">
@@ -7717,7 +7730,7 @@
         <v>58</v>
       </c>
       <c r="M58" t="str">
-        <v>##### Level 5 Element 052</v>
+        <v>##### Hiring</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.5">
@@ -7731,7 +7744,7 @@
         <v>59</v>
       </c>
       <c r="M59" t="str">
-        <v>##### Level 5 Element 053</v>
+        <v>##### Training (“Train the Trainers”)</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.5">
@@ -7745,7 +7758,7 @@
         <v>60</v>
       </c>
       <c r="M60" t="str">
-        <v>##### Level 5 Element 054</v>
+        <v>#### Development</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.5">
@@ -7759,7 +7772,7 @@
         <v>61</v>
       </c>
       <c r="M61" t="str">
-        <v>##### Level 5 Element 055</v>
+        <v>##### Draft Training Materials</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.5">
@@ -7773,7 +7786,7 @@
         <v>62</v>
       </c>
       <c r="M62" t="str">
-        <v>##### Level 5 Element 056</v>
+        <v>##### Review and Pilot</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.5">
@@ -7787,7 +7800,7 @@
         <v>63</v>
       </c>
       <c r="M63" t="str">
-        <v>##### Level 5 Element 057</v>
+        <v>##### Revision (1.2.5.2.2 and 1.2.5.2.3 are iterative—repeat until the class meets its goals)</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.5">
@@ -7801,7 +7814,7 @@
         <v>64</v>
       </c>
       <c r="M64" t="str">
-        <v>##### Level 5 Element 058</v>
+        <v>#### Delivery</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.5">
@@ -7815,7 +7828,7 @@
         <v>65</v>
       </c>
       <c r="M65" t="str">
-        <v>##### Level 5 Element 059</v>
+        <v>## Phase 3: Evaluation</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.5">
@@ -7829,7 +7842,7 @@
         <v>66</v>
       </c>
       <c r="M66" t="str">
-        <v>##### Level 5 Element 060</v>
+        <v>### Project Management Plans for Phase 3 (seven plans</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.5">
@@ -7843,7 +7856,7 @@
         <v>67</v>
       </c>
       <c r="M67" t="str">
-        <v>##### Level 5 Element 061</v>
+        <v>### Documentation of the New State in the Subject Organization</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.5">
@@ -7857,7 +7870,7 @@
         <v>68</v>
       </c>
       <c r="M68" t="str">
-        <v>##### Level 5 Element 062</v>
+        <v>#### Interviews</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.5">
@@ -7871,7 +7884,7 @@
         <v>69</v>
       </c>
       <c r="M69" t="str">
-        <v>##### Level 5 Element 063</v>
+        <v>#### Surveys</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.5">
@@ -7885,7 +7898,7 @@
         <v>70</v>
       </c>
       <c r="M70" t="str">
-        <v>##### Level 5 Element 064</v>
+        <v>#### Statistical Analysis</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.5">
@@ -7899,7 +7912,7 @@
         <v>71</v>
       </c>
       <c r="M71" t="str">
-        <v>##### Level 5 Element 065</v>
+        <v>#### Flow Charts of New Processes</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.5">
@@ -7913,7 +7926,7 @@
         <v>72</v>
       </c>
       <c r="M72" t="str">
-        <v>##### Level 5 Element 066</v>
+        <v>### Identification of Deficiencies</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.5">
@@ -7927,7 +7940,7 @@
         <v>73</v>
       </c>
       <c r="M73" t="str">
-        <v>##### Level 5 Element 067</v>
+        <v>#### Flow Charts of Desired Processes (from 1.4.3.3)</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.5">
@@ -7941,7 +7954,7 @@
         <v>74</v>
       </c>
       <c r="M74" t="str">
-        <v>##### Level 5 Element 068</v>
+        <v>#### Gap Analysis</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.5">
@@ -7955,7 +7968,7 @@
         <v>75</v>
       </c>
       <c r="M75" t="str">
-        <v>#### Level 4 Element 069</v>
+        <v>### Recommendations for New Projects</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.5">
@@ -7969,7 +7982,7 @@
         <v>76</v>
       </c>
       <c r="M76" t="str">
-        <v>##### Level 5 Element 070</v>
+        <v>#### Recommendation 1</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.5">
@@ -7983,7 +7996,7 @@
         <v>77</v>
       </c>
       <c r="M77" t="str">
-        <v>##### Level 5 Element 071</v>
+        <v>##### Draft Charter</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.5">
@@ -7997,7 +8010,7 @@
         <v>78</v>
       </c>
       <c r="M78" t="str">
-        <v>##### Level 5 Element 072</v>
+        <v>##### Estimated Cost</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.5">
@@ -8011,7 +8024,7 @@
         <v>79</v>
       </c>
       <c r="M79" t="str">
-        <v>##### Level 5 Element 073</v>
+        <v>#### Recommendation 2</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.5">
@@ -8025,7 +8038,7 @@
         <v>80</v>
       </c>
       <c r="M80" t="str">
-        <v>##### Level 5 Element 074</v>
+        <v>##### Draft Charter</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.5">
@@ -8039,7 +8052,7 @@
         <v>81</v>
       </c>
       <c r="M81" t="str">
-        <v>##### Level 5 Element 075</v>
+        <v>##### Estimated Cost</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.5">
@@ -8053,7 +8066,7 @@
         <v>82</v>
       </c>
       <c r="M82" t="str">
-        <v>##### Level 5 Element 076</v>
+        <v>#### Recommendation n</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.5">
@@ -8067,7 +8080,7 @@
         <v>83</v>
       </c>
       <c r="M83" t="str">
-        <v>##### Level 5 Element 077</v>
+        <v>##### Draft Charter</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.5">
@@ -8081,7 +8094,7 @@
         <v>84</v>
       </c>
       <c r="M84" t="str">
-        <v>##### Level 5 Element 078</v>
+        <v>##### Estimated Cost</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.5">
@@ -8094,9 +8107,6 @@
       <c r="C85" t="s">
         <v>85</v>
       </c>
-      <c r="M85" t="str">
-        <v>##### Level 5 Element 079</v>
-      </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A86" t="s">
@@ -8108,9 +8118,6 @@
       <c r="C86" t="s">
         <v>86</v>
       </c>
-      <c r="M86" t="str">
-        <v>#### Level 4 Element 080</v>
-      </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A87" t="s">
@@ -8122,9 +8129,6 @@
       <c r="C87" t="s">
         <v>87</v>
       </c>
-      <c r="M87" t="str">
-        <v>##### Level 5 Element 081</v>
-      </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A88" t="s">
@@ -8136,9 +8140,6 @@
       <c r="C88" t="s">
         <v>88</v>
       </c>
-      <c r="M88" t="str">
-        <v>##### Level 5 Element 082</v>
-      </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A89" t="s">
@@ -8150,9 +8151,6 @@
       <c r="C89" t="s">
         <v>89</v>
       </c>
-      <c r="M89" t="str">
-        <v>##### Level 5 Element 083</v>
-      </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A90" t="s">
@@ -8164,9 +8162,6 @@
       <c r="C90" t="s">
         <v>83</v>
       </c>
-      <c r="M90" t="str">
-        <v>##### Level 5 Element 084</v>
-      </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A91" t="s">
@@ -8178,9 +8173,6 @@
       <c r="C91" t="s">
         <v>84</v>
       </c>
-      <c r="M91" t="str">
-        <v>##### Level 5 Element 085</v>
-      </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A92" t="s">
@@ -8192,9 +8184,6 @@
       <c r="C92" t="s">
         <v>85</v>
       </c>
-      <c r="M92" t="str">
-        <v>##### Level 5 Element 086</v>
-      </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A93" t="s">
@@ -8206,9 +8195,6 @@
       <c r="C93" t="s">
         <v>90</v>
       </c>
-      <c r="M93" t="str">
-        <v>##### Level 5 Element 087</v>
-      </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A94" t="s">
@@ -8220,9 +8206,6 @@
       <c r="C94" t="s">
         <v>91</v>
       </c>
-      <c r="M94" t="str">
-        <v>##### Level 5 Element 088</v>
-      </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A95" t="s">
@@ -8234,9 +8217,6 @@
       <c r="C95" t="s">
         <v>92</v>
       </c>
-      <c r="M95" t="str">
-        <v>##### Level 5 Element 089</v>
-      </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A96" t="s">
@@ -8248,11 +8228,8 @@
       <c r="C96" t="s">
         <v>93</v>
       </c>
-      <c r="M96" t="str">
-        <v>##### Level 5 Element 090</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A97" t="s">
         <v>2</v>
       </c>
@@ -8262,11 +8239,8 @@
       <c r="C97" t="s">
         <v>94</v>
       </c>
-      <c r="M97" t="str">
-        <v>##### Level 5 Element 091</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A98" t="s">
         <v>2</v>
       </c>
@@ -8276,11 +8250,8 @@
       <c r="C98" t="s">
         <v>95</v>
       </c>
-      <c r="M98" t="str">
-        <v>##### Level 5 Element 092</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A99" t="s">
         <v>2</v>
       </c>
@@ -8290,11 +8261,8 @@
       <c r="C99" t="s">
         <v>96</v>
       </c>
-      <c r="M99" t="str">
-        <v>##### Level 5 Element 093</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A100" t="s">
         <v>2</v>
       </c>
@@ -8304,11 +8272,8 @@
       <c r="C100" t="s">
         <v>97</v>
       </c>
-      <c r="M100" t="str">
-        <v>##### Level 5 Element 094</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A101" t="s">
         <v>2</v>
       </c>
@@ -8318,11 +8283,8 @@
       <c r="C101" t="s">
         <v>98</v>
       </c>
-      <c r="M101" t="str">
-        <v>##### Level 5 Element 095</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A102" t="s">
         <v>2</v>
       </c>
@@ -8332,11 +8294,8 @@
       <c r="C102" t="s">
         <v>99</v>
       </c>
-      <c r="M102" t="str">
-        <v>##### Level 5 Element 096</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A103" t="s">
         <v>2</v>
       </c>
@@ -8346,11 +8305,8 @@
       <c r="C103" t="s">
         <v>100</v>
       </c>
-      <c r="M103" t="str">
-        <v>##### Level 5 Element 097</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A104" t="s">
         <v>2</v>
       </c>
@@ -8360,11 +8316,8 @@
       <c r="C104" t="s">
         <v>101</v>
       </c>
-      <c r="M104" t="str">
-        <v>#### Level 4 Element 098</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A105" t="s">
         <v>2</v>
       </c>
@@ -8374,11 +8327,8 @@
       <c r="C105" t="s">
         <v>102</v>
       </c>
-      <c r="M105" t="str">
-        <v>##### Level 5 Element 099</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A106" t="s">
         <v>2</v>
       </c>
@@ -8388,11 +8338,8 @@
       <c r="C106" t="s">
         <v>103</v>
       </c>
-      <c r="M106" t="str">
-        <v>##### Level 5 Element 100</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A107" t="s">
         <v>2</v>
       </c>
@@ -8402,11 +8349,8 @@
       <c r="C107" t="s">
         <v>104</v>
       </c>
-      <c r="M107" t="str">
-        <v>##### Level 5 Element 101</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A108" t="s">
         <v>2</v>
       </c>
@@ -8416,11 +8360,8 @@
       <c r="C108" t="s">
         <v>105</v>
       </c>
-      <c r="M108" t="str">
-        <v>##### Level 5 Element 102</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A109" t="s">
         <v>2</v>
       </c>
@@ -8430,11 +8371,8 @@
       <c r="C109" t="s">
         <v>106</v>
       </c>
-      <c r="M109" t="str">
-        <v>### Level 3 Element 103</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A110" t="s">
         <v>2</v>
       </c>
@@ -8444,11 +8382,8 @@
       <c r="C110" t="s">
         <v>107</v>
       </c>
-      <c r="M110" t="str">
-        <v>#### Level 4 Element 104</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A111" t="s">
         <v>2</v>
       </c>
@@ -8458,11 +8393,8 @@
       <c r="C111" t="s">
         <v>108</v>
       </c>
-      <c r="M111" t="str">
-        <v>#### Level 4 Element 105</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A112" t="s">
         <v>2</v>
       </c>
@@ -8472,11 +8404,8 @@
       <c r="C112" t="s">
         <v>109</v>
       </c>
-      <c r="M112" t="str">
-        <v>#### Level 4 Element 106</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A113" t="s">
         <v>2</v>
       </c>
@@ -8486,11 +8415,8 @@
       <c r="C113" t="s">
         <v>110</v>
       </c>
-      <c r="M113" t="str">
-        <v>#### Level 4 Element 107</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A114" t="s">
         <v>2</v>
       </c>
@@ -8500,11 +8426,8 @@
       <c r="C114" t="s">
         <v>111</v>
       </c>
-      <c r="M114" t="str">
-        <v>### Level 3 Element 108</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A115" t="s">
         <v>2</v>
       </c>
@@ -8514,11 +8437,8 @@
       <c r="C115" t="s">
         <v>112</v>
       </c>
-      <c r="M115" t="str">
-        <v>#### Level 4 Element 109</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A116" t="s">
         <v>2</v>
       </c>
@@ -8528,11 +8448,8 @@
       <c r="C116" t="s">
         <v>113</v>
       </c>
-      <c r="M116" t="str">
-        <v>##### Level 5 Element 110</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A117" t="s">
         <v>2</v>
       </c>
@@ -8542,11 +8459,8 @@
       <c r="C117" t="s">
         <v>114</v>
       </c>
-      <c r="M117" t="str">
-        <v>##### Level 5 Element 111</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A118" t="s">
         <v>2</v>
       </c>
@@ -8556,11 +8470,8 @@
       <c r="C118" t="s">
         <v>115</v>
       </c>
-      <c r="M118" t="str">
-        <v>##### Level 5 Element 112</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A119" t="s">
         <v>2</v>
       </c>
@@ -8570,11 +8481,8 @@
       <c r="C119" t="s">
         <v>116</v>
       </c>
-      <c r="M119" t="str">
-        <v>##### Level 5 Element 113</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A120" t="s">
         <v>2</v>
       </c>
@@ -8584,11 +8492,8 @@
       <c r="C120" t="s">
         <v>117</v>
       </c>
-      <c r="M120" t="str">
-        <v>#### Level 4 Element 114</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A121" t="s">
         <v>2</v>
       </c>
@@ -8598,11 +8503,8 @@
       <c r="C121" t="s">
         <v>118</v>
       </c>
-      <c r="M121" t="str">
-        <v>##### Level 5 Element 115</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A122" t="s">
         <v>2</v>
       </c>
@@ -8612,11 +8514,8 @@
       <c r="C122" t="s">
         <v>119</v>
       </c>
-      <c r="M122" t="str">
-        <v>##### Level 5 Element 116</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A123" t="s">
         <v>2</v>
       </c>
@@ -8626,11 +8525,8 @@
       <c r="C123" t="s">
         <v>109</v>
       </c>
-      <c r="M123" t="str">
-        <v>##### Level 5 Element 117</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A124" t="s">
         <v>2</v>
       </c>
@@ -8640,11 +8536,8 @@
       <c r="C124" t="s">
         <v>110</v>
       </c>
-      <c r="M124" t="str">
-        <v>##### Level 5 Element 118</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A125" t="s">
         <v>2</v>
       </c>
@@ -8654,11 +8547,8 @@
       <c r="C125" t="s">
         <v>111</v>
       </c>
-      <c r="M125" t="str">
-        <v>##### Level 5 Element 119</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A126" t="s">
         <v>2</v>
       </c>
@@ -8668,11 +8558,8 @@
       <c r="C126" t="s">
         <v>112</v>
       </c>
-      <c r="M126" t="str">
-        <v>##### Level 5 Element 120</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A127" t="s">
         <v>2</v>
       </c>
@@ -8682,11 +8569,8 @@
       <c r="C127" t="s">
         <v>113</v>
       </c>
-      <c r="M127" t="str">
-        <v>#### Level 4 Element 121</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A128" t="s">
         <v>2</v>
       </c>
@@ -8696,11 +8580,8 @@
       <c r="C128" t="s">
         <v>114</v>
       </c>
-      <c r="M128" t="str">
-        <v>##### Level 5 Element 122</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A129" t="s">
         <v>2</v>
       </c>
@@ -8710,11 +8591,8 @@
       <c r="C129" t="s">
         <v>115</v>
       </c>
-      <c r="M129" t="str">
-        <v>##### Level 5 Element 123</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A130" t="s">
         <v>2</v>
       </c>
@@ -8724,11 +8602,8 @@
       <c r="C130" t="s">
         <v>116</v>
       </c>
-      <c r="M130" t="str">
-        <v>##### Level 5 Element 124</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A131" t="s">
         <v>2</v>
       </c>
@@ -8738,11 +8613,8 @@
       <c r="C131" t="s">
         <v>117</v>
       </c>
-      <c r="M131" t="str">
-        <v>##### Level 5 Element 125</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A132" t="s">
         <v>2</v>
       </c>
@@ -8752,11 +8624,8 @@
       <c r="C132" t="s">
         <v>118</v>
       </c>
-      <c r="M132" t="str">
-        <v>##### Level 5 Element 126</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A133" t="s">
         <v>2</v>
       </c>
@@ -8766,11 +8635,8 @@
       <c r="C133" t="s">
         <v>120</v>
       </c>
-      <c r="M133" t="str">
-        <v>##### Level 5 Element 127</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A134" t="s">
         <v>2</v>
       </c>
@@ -8780,11 +8646,8 @@
       <c r="C134" t="s">
         <v>121</v>
       </c>
-      <c r="M134" t="str">
-        <v>##### Level 5 Element 128</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A135" t="s">
         <v>2</v>
       </c>
@@ -8794,11 +8657,8 @@
       <c r="C135" t="s">
         <v>122</v>
       </c>
-      <c r="M135" t="str">
-        <v>##### Level 5 Element 129</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A136" t="s">
         <v>2</v>
       </c>
@@ -8808,11 +8668,8 @@
       <c r="C136" t="s">
         <v>123</v>
       </c>
-      <c r="M136" t="str">
-        <v>##### Level 5 Element 130</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A137" t="s">
         <v>2</v>
       </c>
@@ -8822,11 +8679,8 @@
       <c r="C137" t="s">
         <v>124</v>
       </c>
-      <c r="M137" t="str">
-        <v>##### Level 5 Element 131</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A138" t="s">
         <v>2</v>
       </c>
@@ -8836,11 +8690,8 @@
       <c r="C138" t="s">
         <v>125</v>
       </c>
-      <c r="M138" t="str">
-        <v>#### Level 4 Element 132</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A139" t="s">
         <v>2</v>
       </c>
@@ -8850,11 +8701,8 @@
       <c r="C139" t="s">
         <v>126</v>
       </c>
-      <c r="M139" t="str">
-        <v>##### Level 5 Element 133</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A140" t="s">
         <v>2</v>
       </c>
@@ -8864,11 +8712,8 @@
       <c r="C140" t="s">
         <v>127</v>
       </c>
-      <c r="M140" t="str">
-        <v>##### Level 5 Element 134</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A141" t="s">
         <v>2</v>
       </c>
@@ -8878,11 +8723,8 @@
       <c r="C141" t="s">
         <v>128</v>
       </c>
-      <c r="M141" t="str">
-        <v>##### Level 5 Element 135</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A142" t="s">
         <v>2</v>
       </c>
@@ -8892,11 +8734,8 @@
       <c r="C142" t="s">
         <v>129</v>
       </c>
-      <c r="M142" t="str">
-        <v>##### Level 5 Element 136</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A143" t="s">
         <v>2</v>
       </c>
@@ -8906,11 +8745,8 @@
       <c r="C143" t="s">
         <v>130</v>
       </c>
-      <c r="M143" t="str">
-        <v>##### Level 5 Element 137</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A144" t="s">
         <v>2</v>
       </c>
@@ -8920,11 +8756,8 @@
       <c r="C144" t="s">
         <v>131</v>
       </c>
-      <c r="M144" t="str">
-        <v>##### Level 5 Element 138</v>
-      </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A145" t="s">
         <v>132</v>
       </c>
@@ -8934,11 +8767,8 @@
       <c r="C145" t="s">
         <v>133</v>
       </c>
-      <c r="M145" t="str">
-        <v>##### Level 5 Element 139</v>
-      </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A146" t="s">
         <v>132</v>
       </c>
@@ -8948,11 +8778,8 @@
       <c r="C146" t="s">
         <v>134</v>
       </c>
-      <c r="M146" t="str">
-        <v>##### Level 5 Element 140</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A147" t="s">
         <v>132</v>
       </c>
@@ -8962,11 +8789,8 @@
       <c r="C147" t="s">
         <v>135</v>
       </c>
-      <c r="M147" t="str">
-        <v>#### Level 4 Element 141</v>
-      </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A148" t="s">
         <v>132</v>
       </c>
@@ -8976,11 +8800,8 @@
       <c r="C148" t="s">
         <v>136</v>
       </c>
-      <c r="M148" t="str">
-        <v>##### Level 5 Element 142</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A149" t="s">
         <v>132</v>
       </c>
@@ -8990,11 +8811,8 @@
       <c r="C149" t="s">
         <v>137</v>
       </c>
-      <c r="M149" t="str">
-        <v>##### Level 5 Element 143</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A150" t="s">
         <v>132</v>
       </c>
@@ -9004,11 +8822,8 @@
       <c r="C150" t="s">
         <v>138</v>
       </c>
-      <c r="M150" t="str">
-        <v>##### Level 5 Element 144</v>
-      </c>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A151" t="s">
         <v>132</v>
       </c>
@@ -9018,11 +8833,8 @@
       <c r="C151" t="s">
         <v>139</v>
       </c>
-      <c r="M151" t="str">
-        <v>##### Level 5 Element 145</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A152" t="s">
         <v>132</v>
       </c>
@@ -9032,11 +8844,8 @@
       <c r="C152" t="s">
         <v>140</v>
       </c>
-      <c r="M152" t="str">
-        <v>##### Level 5 Element 146</v>
-      </c>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A153" t="s">
         <v>132</v>
       </c>
@@ -9046,11 +8855,8 @@
       <c r="C153" t="s">
         <v>141</v>
       </c>
-      <c r="M153" t="str">
-        <v>##### Level 5 Element 147</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A154" t="s">
         <v>132</v>
       </c>
@@ -9060,11 +8866,8 @@
       <c r="C154" t="s">
         <v>142</v>
       </c>
-      <c r="M154" t="str">
-        <v>##### Level 5 Element 148</v>
-      </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A155" t="s">
         <v>132</v>
       </c>
@@ -9074,11 +8877,8 @@
       <c r="C155" t="s">
         <v>143</v>
       </c>
-      <c r="M155" t="str">
-        <v>##### Level 5 Element 149</v>
-      </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A156" t="s">
         <v>132</v>
       </c>
@@ -9088,11 +8888,8 @@
       <c r="C156" t="s">
         <v>144</v>
       </c>
-      <c r="M156" t="str">
-        <v>##### Level 5 Element 150</v>
-      </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A157" t="s">
         <v>132</v>
       </c>
@@ -9102,11 +8899,8 @@
       <c r="C157" t="s">
         <v>145</v>
       </c>
-      <c r="M157" t="str">
-        <v>##### Level 5 Element 151</v>
-      </c>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A158" t="s">
         <v>132</v>
       </c>
@@ -9116,11 +8910,8 @@
       <c r="C158" t="s">
         <v>146</v>
       </c>
-      <c r="M158" t="str">
-        <v>##### Level 5 Element 152</v>
-      </c>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A159" t="s">
         <v>132</v>
       </c>
@@ -9130,11 +8921,8 @@
       <c r="C159" t="s">
         <v>147</v>
       </c>
-      <c r="M159" t="str">
-        <v>##### Level 5 Element 153</v>
-      </c>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A160" t="s">
         <v>132</v>
       </c>
@@ -9144,11 +8932,8 @@
       <c r="C160" t="s">
         <v>148</v>
       </c>
-      <c r="M160" t="str">
-        <v>#### Level 4 Element 154</v>
-      </c>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A161" t="s">
         <v>132</v>
       </c>
@@ -9158,11 +8943,8 @@
       <c r="C161" t="s">
         <v>149</v>
       </c>
-      <c r="M161" t="str">
-        <v>##### Level 5 Element 155</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A162" t="s">
         <v>132</v>
       </c>
@@ -9172,11 +8954,8 @@
       <c r="C162" t="s">
         <v>150</v>
       </c>
-      <c r="M162" t="str">
-        <v>##### Level 5 Element 156</v>
-      </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A163" t="s">
         <v>132</v>
       </c>
@@ -9186,11 +8965,8 @@
       <c r="C163" t="s">
         <v>151</v>
       </c>
-      <c r="M163" t="str">
-        <v>##### Level 5 Element 157</v>
-      </c>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A164" t="s">
         <v>132</v>
       </c>
@@ -9200,11 +8976,8 @@
       <c r="C164" t="s">
         <v>152</v>
       </c>
-      <c r="M164" t="str">
-        <v>##### Level 5 Element 158</v>
-      </c>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A165" t="s">
         <v>132</v>
       </c>
@@ -9214,11 +8987,8 @@
       <c r="C165" t="s">
         <v>153</v>
       </c>
-      <c r="M165" t="str">
-        <v>##### Level 5 Element 159</v>
-      </c>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A166" t="s">
         <v>154</v>
       </c>
@@ -9228,11 +8998,8 @@
       <c r="C166" t="s">
         <v>155</v>
       </c>
-      <c r="M166" t="str">
-        <v>##### Level 5 Element 160</v>
-      </c>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A167" t="s">
         <v>154</v>
       </c>
@@ -9242,11 +9009,8 @@
       <c r="C167" t="s">
         <v>134</v>
       </c>
-      <c r="M167" t="str">
-        <v>##### Level 5 Element 161</v>
-      </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A168" t="s">
         <v>154</v>
       </c>
@@ -9256,11 +9020,8 @@
       <c r="C168" t="s">
         <v>135</v>
       </c>
-      <c r="M168" t="str">
-        <v>##### Level 5 Element 162</v>
-      </c>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A169" t="s">
         <v>154</v>
       </c>
@@ -9270,11 +9031,8 @@
       <c r="C169" t="s">
         <v>136</v>
       </c>
-      <c r="M169" t="str">
-        <v>##### Level 5 Element 163</v>
-      </c>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A170" t="s">
         <v>154</v>
       </c>
@@ -9284,11 +9042,8 @@
       <c r="C170" t="s">
         <v>137</v>
       </c>
-      <c r="M170" t="str">
-        <v>##### Level 5 Element 164</v>
-      </c>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A171" t="s">
         <v>154</v>
       </c>
@@ -9298,11 +9053,8 @@
       <c r="C171" t="s">
         <v>138</v>
       </c>
-      <c r="M171" t="str">
-        <v>#### Level 4 Element 165</v>
-      </c>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A172" t="s">
         <v>154</v>
       </c>
@@ -9312,11 +9064,8 @@
       <c r="C172" t="s">
         <v>139</v>
       </c>
-      <c r="M172" t="str">
-        <v>##### Level 5 Element 166</v>
-      </c>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A173" t="s">
         <v>154</v>
       </c>
@@ -9326,11 +9075,8 @@
       <c r="C173" t="s">
         <v>140</v>
       </c>
-      <c r="M173" t="str">
-        <v>##### Level 5 Element 167</v>
-      </c>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A174" t="s">
         <v>154</v>
       </c>
@@ -9340,11 +9086,8 @@
       <c r="C174" t="s">
         <v>141</v>
       </c>
-      <c r="M174" t="str">
-        <v>##### Level 5 Element 168</v>
-      </c>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A175" t="s">
         <v>154</v>
       </c>
@@ -9354,11 +9097,8 @@
       <c r="C175" t="s">
         <v>142</v>
       </c>
-      <c r="M175" t="str">
-        <v>##### Level 5 Element 169</v>
-      </c>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A176" t="s">
         <v>154</v>
       </c>
@@ -9368,11 +9108,8 @@
       <c r="C176" t="s">
         <v>143</v>
       </c>
-      <c r="M176" t="str">
-        <v>##### Level 5 Element 170</v>
-      </c>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A177" t="s">
         <v>154</v>
       </c>
@@ -9382,11 +9119,8 @@
       <c r="C177" t="s">
         <v>144</v>
       </c>
-      <c r="M177" t="str">
-        <v>##### Level 5 Element 171</v>
-      </c>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A178" t="s">
         <v>154</v>
       </c>
@@ -9396,11 +9130,8 @@
       <c r="C178" t="s">
         <v>145</v>
       </c>
-      <c r="M178" t="str">
-        <v>##### Level 5 Element 172</v>
-      </c>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A179" t="s">
         <v>154</v>
       </c>
@@ -9410,11 +9141,8 @@
       <c r="C179" t="s">
         <v>146</v>
       </c>
-      <c r="M179" t="str">
-        <v>##### Level 5 Element 173</v>
-      </c>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A180" t="s">
         <v>154</v>
       </c>
@@ -9424,11 +9152,8 @@
       <c r="C180" t="s">
         <v>147</v>
       </c>
-      <c r="M180" t="str">
-        <v>##### Level 5 Element 174</v>
-      </c>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A181" t="s">
         <v>154</v>
       </c>
@@ -9438,11 +9163,8 @@
       <c r="C181" t="s">
         <v>148</v>
       </c>
-      <c r="M181" t="str">
-        <v>##### Level 5 Element 175</v>
-      </c>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A182" t="s">
         <v>154</v>
       </c>
@@ -9452,11 +9174,8 @@
       <c r="C182" t="s">
         <v>149</v>
       </c>
-      <c r="M182" t="str">
-        <v>##### Level 5 Element 176</v>
-      </c>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A183" t="s">
         <v>154</v>
       </c>
@@ -9466,11 +9185,8 @@
       <c r="C183" t="s">
         <v>156</v>
       </c>
-      <c r="M183" t="str">
-        <v>##### Level 5 Element 177</v>
-      </c>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A184" t="s">
         <v>154</v>
       </c>
@@ -9480,11 +9196,8 @@
       <c r="C184" t="s">
         <v>157</v>
       </c>
-      <c r="M184" t="str">
-        <v>##### Level 5 Element 178</v>
-      </c>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A185" t="s">
         <v>154</v>
       </c>
@@ -9494,11 +9207,8 @@
       <c r="C185" t="s">
         <v>158</v>
       </c>
-      <c r="M185" t="str">
-        <v>#### Level 4 Element 179</v>
-      </c>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A186" t="s">
         <v>154</v>
       </c>
@@ -9508,11 +9218,8 @@
       <c r="C186" t="s">
         <v>159</v>
       </c>
-      <c r="M186" t="str">
-        <v>##### Level 5 Element 180</v>
-      </c>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A187" t="s">
         <v>154</v>
       </c>
@@ -9522,11 +9229,8 @@
       <c r="C187" t="s">
         <v>160</v>
       </c>
-      <c r="M187" t="str">
-        <v>##### Level 5 Element 181</v>
-      </c>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A188" t="s">
         <v>154</v>
       </c>
@@ -9536,11 +9240,8 @@
       <c r="C188" t="s">
         <v>161</v>
       </c>
-      <c r="M188" t="str">
-        <v>##### Level 5 Element 182</v>
-      </c>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A189" t="s">
         <v>154</v>
       </c>
@@ -9550,11 +9251,8 @@
       <c r="C189" t="s">
         <v>162</v>
       </c>
-      <c r="M189" t="str">
-        <v>##### Level 5 Element 183</v>
-      </c>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A190" t="s">
         <v>154</v>
       </c>
@@ -9564,11 +9262,8 @@
       <c r="C190" t="s">
         <v>163</v>
       </c>
-      <c r="M190" t="str">
-        <v>##### Level 5 Element 184</v>
-      </c>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A191" t="s">
         <v>154</v>
       </c>
@@ -9578,11 +9273,8 @@
       <c r="C191" t="s">
         <v>164</v>
       </c>
-      <c r="M191" t="str">
-        <v>##### Level 5 Element 185</v>
-      </c>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A192" t="s">
         <v>154</v>
       </c>
@@ -9592,11 +9284,8 @@
       <c r="C192" t="s">
         <v>165</v>
       </c>
-      <c r="M192" t="str">
-        <v>##### Level 5 Element 186</v>
-      </c>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A193" t="s">
         <v>154</v>
       </c>
@@ -9606,11 +9295,8 @@
       <c r="C193" t="s">
         <v>166</v>
       </c>
-      <c r="M193" t="str">
-        <v>##### Level 5 Element 187</v>
-      </c>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A194" t="s">
         <v>154</v>
       </c>
@@ -9620,11 +9306,8 @@
       <c r="C194" t="s">
         <v>167</v>
       </c>
-      <c r="M194" t="str">
-        <v>##### Level 5 Element 188</v>
-      </c>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A195" t="s">
         <v>154</v>
       </c>
@@ -9634,11 +9317,8 @@
       <c r="C195" t="s">
         <v>168</v>
       </c>
-      <c r="M195" t="str">
-        <v>##### Level 5 Element 189</v>
-      </c>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A196" t="s">
         <v>154</v>
       </c>
@@ -9648,11 +9328,8 @@
       <c r="C196" t="s">
         <v>151</v>
       </c>
-      <c r="M196" t="str">
-        <v>#### Level 4 Element 190</v>
-      </c>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A197" t="s">
         <v>154</v>
       </c>
@@ -9662,11 +9339,8 @@
       <c r="C197" t="s">
         <v>169</v>
       </c>
-      <c r="M197" t="str">
-        <v>##### Level 5 Element 191</v>
-      </c>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A198" t="s">
         <v>154</v>
       </c>
@@ -9676,11 +9350,8 @@
       <c r="C198" t="s">
         <v>157</v>
       </c>
-      <c r="M198" t="str">
-        <v>##### Level 5 Element 192</v>
-      </c>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A199" t="s">
         <v>154</v>
       </c>
@@ -9690,11 +9361,8 @@
       <c r="C199" t="s">
         <v>152</v>
       </c>
-      <c r="M199" t="str">
-        <v>##### Level 5 Element 193</v>
-      </c>
-    </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A200" t="s">
         <v>154</v>
       </c>
@@ -9704,11 +9372,8 @@
       <c r="C200" t="s">
         <v>169</v>
       </c>
-      <c r="M200" t="str">
-        <v>##### Level 5 Element 194</v>
-      </c>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A201" t="s">
         <v>154</v>
       </c>
@@ -9718,11 +9383,8 @@
       <c r="C201" t="s">
         <v>170</v>
       </c>
-      <c r="M201" t="str">
-        <v>##### Level 5 Element 195</v>
-      </c>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A202" t="s">
         <v>154</v>
       </c>
@@ -9732,11 +9394,8 @@
       <c r="C202" t="s">
         <v>153</v>
       </c>
-      <c r="M202" t="str">
-        <v>##### Level 5 Element 196</v>
-      </c>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A203" t="s">
         <v>154</v>
       </c>
@@ -9746,11 +9405,8 @@
       <c r="C203" t="s">
         <v>149</v>
       </c>
-      <c r="M203" t="str">
-        <v>##### Level 5 Element 197</v>
-      </c>
-    </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A204" t="s">
         <v>154</v>
       </c>
@@ -9760,11 +9416,8 @@
       <c r="C204" t="s">
         <v>171</v>
       </c>
-      <c r="M204" t="str">
-        <v>##### Level 5 Element 198</v>
-      </c>
-    </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A205" t="s">
         <v>172</v>
       </c>
@@ -9774,11 +9427,8 @@
       <c r="C205" t="s">
         <v>173</v>
       </c>
-      <c r="M205" t="str">
-        <v>##### Level 5 Element 199</v>
-      </c>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A206" t="s">
         <v>172</v>
       </c>
@@ -9788,11 +9438,8 @@
       <c r="C206" t="s">
         <v>174</v>
       </c>
-      <c r="M206" t="str">
-        <v>##### Level 5 Element 200</v>
-      </c>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A207" t="s">
         <v>172</v>
       </c>
@@ -9802,11 +9449,8 @@
       <c r="C207" t="s">
         <v>175</v>
       </c>
-      <c r="M207" t="str">
-        <v>##### Level 5 Element 201</v>
-      </c>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A208" t="s">
         <v>172</v>
       </c>
@@ -9816,11 +9460,8 @@
       <c r="C208" t="s">
         <v>176</v>
       </c>
-      <c r="M208" t="str">
-        <v>##### Level 5 Element 202</v>
-      </c>
-    </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A209" t="s">
         <v>172</v>
       </c>
@@ -9830,11 +9471,8 @@
       <c r="C209" t="s">
         <v>177</v>
       </c>
-      <c r="M209" t="str">
-        <v>##### Level 5 Element 203</v>
-      </c>
-    </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A210" t="s">
         <v>172</v>
       </c>
@@ -9844,11 +9482,8 @@
       <c r="C210" t="s">
         <v>178</v>
       </c>
-      <c r="M210" t="str">
-        <v>##### Level 5 Element 204</v>
-      </c>
-    </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A211" t="s">
         <v>172</v>
       </c>
@@ -9858,11 +9493,8 @@
       <c r="C211" t="s">
         <v>179</v>
       </c>
-      <c r="M211" t="str">
-        <v>##### Level 5 Element 205</v>
-      </c>
-    </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A212" t="s">
         <v>172</v>
       </c>
@@ -9872,11 +9504,8 @@
       <c r="C212" t="s">
         <v>180</v>
       </c>
-      <c r="M212" t="str">
-        <v>##### Level 5 Element 206</v>
-      </c>
-    </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A213" t="s">
         <v>172</v>
       </c>
@@ -9886,11 +9515,8 @@
       <c r="C213" t="s">
         <v>181</v>
       </c>
-      <c r="M213" t="str">
-        <v>#### Level 4 Element 207</v>
-      </c>
-    </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A214" t="s">
         <v>172</v>
       </c>
@@ -9900,11 +9526,8 @@
       <c r="C214" t="s">
         <v>182</v>
       </c>
-      <c r="M214" t="str">
-        <v>##### Level 5 Element 208</v>
-      </c>
-    </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A215" t="s">
         <v>172</v>
       </c>
@@ -9914,11 +9537,8 @@
       <c r="C215" t="s">
         <v>183</v>
       </c>
-      <c r="M215" t="str">
-        <v>##### Level 5 Element 209</v>
-      </c>
-    </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A216" t="s">
         <v>172</v>
       </c>
@@ -9928,11 +9548,8 @@
       <c r="C216" t="s">
         <v>66</v>
       </c>
-      <c r="M216" t="str">
-        <v>##### Level 5 Element 210</v>
-      </c>
-    </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A217" t="s">
         <v>172</v>
       </c>
@@ -9942,11 +9559,8 @@
       <c r="C217" t="s">
         <v>67</v>
       </c>
-      <c r="M217" t="str">
-        <v>##### Level 5 Element 211</v>
-      </c>
-    </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A218" t="s">
         <v>172</v>
       </c>
@@ -9956,11 +9570,8 @@
       <c r="C218" t="s">
         <v>68</v>
       </c>
-      <c r="M218" t="str">
-        <v>#### Level 4 Element 212</v>
-      </c>
-    </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A219" t="s">
         <v>172</v>
       </c>
@@ -9970,11 +9581,8 @@
       <c r="C219" t="s">
         <v>69</v>
       </c>
-      <c r="M219" t="str">
-        <v>### Level 3 Element 213</v>
-      </c>
-    </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A220" t="s">
         <v>172</v>
       </c>
@@ -9984,11 +9592,8 @@
       <c r="C220" t="s">
         <v>70</v>
       </c>
-      <c r="M220" t="str">
-        <v>### Level 3 Element 214</v>
-      </c>
-    </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A221" t="s">
         <v>172</v>
       </c>
@@ -9998,11 +9603,8 @@
       <c r="C221" t="s">
         <v>71</v>
       </c>
-      <c r="M221" t="str">
-        <v>### Level 3 Element 215</v>
-      </c>
-    </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A222" t="s">
         <v>172</v>
       </c>
@@ -10012,11 +9614,8 @@
       <c r="C222" t="s">
         <v>72</v>
       </c>
-      <c r="M222" t="str">
-        <v>### Level 3 Element 216</v>
-      </c>
-    </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A223" t="s">
         <v>172</v>
       </c>
@@ -10026,11 +9625,8 @@
       <c r="C223" t="s">
         <v>73</v>
       </c>
-      <c r="M223" t="str">
-        <v>### Level 3 Element 217</v>
-      </c>
-    </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A224" t="s">
         <v>172</v>
       </c>
@@ -10040,11 +9636,8 @@
       <c r="C224" t="s">
         <v>74</v>
       </c>
-      <c r="M224" t="str">
-        <v>### Level 3 Element 218</v>
-      </c>
-    </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A225" t="s">
         <v>172</v>
       </c>
@@ -10054,11 +9647,8 @@
       <c r="C225" t="s">
         <v>75</v>
       </c>
-      <c r="M225" t="str">
-        <v>## Level 2 Element 219</v>
-      </c>
-    </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A226" t="s">
         <v>172</v>
       </c>
@@ -10068,11 +9658,8 @@
       <c r="C226" t="s">
         <v>76</v>
       </c>
-      <c r="M226" t="str">
-        <v>### Level 3 Element 220</v>
-      </c>
-    </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A227" t="s">
         <v>172</v>
       </c>
@@ -10082,11 +9669,8 @@
       <c r="C227" t="s">
         <v>77</v>
       </c>
-      <c r="M227" t="str">
-        <v>#### Level 4 Element 221</v>
-      </c>
-    </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A228" t="s">
         <v>172</v>
       </c>
@@ -10096,11 +9680,8 @@
       <c r="C228" t="s">
         <v>78</v>
       </c>
-      <c r="M228" t="str">
-        <v>#### Level 4 Element 222</v>
-      </c>
-    </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A229" t="s">
         <v>172</v>
       </c>
@@ -10110,11 +9691,8 @@
       <c r="C229" t="s">
         <v>79</v>
       </c>
-      <c r="M229" t="str">
-        <v>#### Level 4 Element 223</v>
-      </c>
-    </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A230" t="s">
         <v>172</v>
       </c>
@@ -10124,11 +9702,8 @@
       <c r="C230" t="s">
         <v>184</v>
       </c>
-      <c r="M230" t="str">
-        <v>#### Level 4 Element 224</v>
-      </c>
-    </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A231" t="s">
         <v>172</v>
       </c>
@@ -10138,11 +9713,8 @@
       <c r="C231" t="s">
         <v>185</v>
       </c>
-      <c r="M231" t="str">
-        <v>### Level 3 Element 225</v>
-      </c>
-    </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A232" t="s">
         <v>172</v>
       </c>
@@ -10152,11 +9724,8 @@
       <c r="C232" t="s">
         <v>85</v>
       </c>
-      <c r="M232" t="str">
-        <v>#### Level 4 Element 226</v>
-      </c>
-    </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A233" t="s">
         <v>172</v>
       </c>
@@ -10166,11 +9735,8 @@
       <c r="C233" t="s">
         <v>86</v>
       </c>
-      <c r="M233" t="str">
-        <v>##### Level 5 Element 227</v>
-      </c>
-    </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A234" t="s">
         <v>172</v>
       </c>
@@ -10180,11 +9746,8 @@
       <c r="C234" t="s">
         <v>87</v>
       </c>
-      <c r="M234" t="str">
-        <v>##### Level 5 Element 228</v>
-      </c>
-    </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A235" t="s">
         <v>172</v>
       </c>
@@ -10194,11 +9757,8 @@
       <c r="C235" t="s">
         <v>85</v>
       </c>
-      <c r="M235" t="str">
-        <v>##### Level 5 Element 229</v>
-      </c>
-    </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A236" t="s">
         <v>172</v>
       </c>
@@ -10208,11 +9768,8 @@
       <c r="C236" t="s">
         <v>186</v>
       </c>
-      <c r="M236" t="str">
-        <v>##### Level 5 Element 230</v>
-      </c>
-    </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A237" t="s">
         <v>172</v>
       </c>
@@ -10222,11 +9779,8 @@
       <c r="C237" t="s">
         <v>91</v>
       </c>
-      <c r="M237" t="str">
-        <v>#### Level 4 Element 231</v>
-      </c>
-    </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A238" t="s">
         <v>172</v>
       </c>
@@ -10236,11 +9790,8 @@
       <c r="C238" t="s">
         <v>92</v>
       </c>
-      <c r="M238" t="str">
-        <v>##### Level 5 Element 232</v>
-      </c>
-    </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A239" t="s">
         <v>172</v>
       </c>
@@ -10250,11 +9801,8 @@
       <c r="C239" t="s">
         <v>93</v>
       </c>
-      <c r="M239" t="str">
-        <v>##### Level 5 Element 233</v>
-      </c>
-    </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A240" t="s">
         <v>172</v>
       </c>
@@ -10264,11 +9812,8 @@
       <c r="C240" t="s">
         <v>94</v>
       </c>
-      <c r="M240" t="str">
-        <v>##### Level 5 Element 234</v>
-      </c>
-    </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A241" t="s">
         <v>172</v>
       </c>
@@ -10278,11 +9823,8 @@
       <c r="C241" t="s">
         <v>95</v>
       </c>
-      <c r="M241" t="str">
-        <v>##### Level 5 Element 235</v>
-      </c>
-    </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A242" t="s">
         <v>172</v>
       </c>
@@ -10292,11 +9834,8 @@
       <c r="C242" t="s">
         <v>96</v>
       </c>
-      <c r="M242" t="str">
-        <v>##### Level 5 Element 236</v>
-      </c>
-    </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A243" t="s">
         <v>172</v>
       </c>
@@ -10306,11 +9845,8 @@
       <c r="C243" t="s">
         <v>97</v>
       </c>
-      <c r="M243" t="str">
-        <v>##### Level 5 Element 237</v>
-      </c>
-    </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A244" t="s">
         <v>172</v>
       </c>
@@ -10320,11 +9856,8 @@
       <c r="C244" t="s">
         <v>98</v>
       </c>
-      <c r="M244" t="str">
-        <v>##### Level 5 Element 238</v>
-      </c>
-    </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A245" t="s">
         <v>172</v>
       </c>
@@ -10334,11 +9867,8 @@
       <c r="C245" t="s">
         <v>99</v>
       </c>
-      <c r="M245" t="str">
-        <v>##### Level 5 Element 239</v>
-      </c>
-    </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A246" t="s">
         <v>172</v>
       </c>
@@ -10348,11 +9878,8 @@
       <c r="C246" t="s">
         <v>100</v>
       </c>
-      <c r="M246" t="str">
-        <v>##### Level 5 Element 240</v>
-      </c>
-    </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A247" t="s">
         <v>172</v>
       </c>
@@ -10362,11 +9889,8 @@
       <c r="C247" t="s">
         <v>101</v>
       </c>
-      <c r="M247" t="str">
-        <v>##### Level 5 Element 241</v>
-      </c>
-    </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A248" t="s">
         <v>172</v>
       </c>
@@ -10376,11 +9900,8 @@
       <c r="C248" t="s">
         <v>102</v>
       </c>
-      <c r="M248" t="str">
-        <v>##### Level 5 Element 242</v>
-      </c>
-    </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A249" t="s">
         <v>172</v>
       </c>
@@ -10390,11 +9911,8 @@
       <c r="C249" t="s">
         <v>103</v>
       </c>
-      <c r="M249" t="str">
-        <v>##### Level 5 Element 243</v>
-      </c>
-    </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A250" t="s">
         <v>172</v>
       </c>
@@ -10404,11 +9922,8 @@
       <c r="C250" t="s">
         <v>104</v>
       </c>
-      <c r="M250" t="str">
-        <v>##### Level 5 Element 244</v>
-      </c>
-    </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A251" t="s">
         <v>172</v>
       </c>
@@ -10418,11 +9933,8 @@
       <c r="C251" t="s">
         <v>105</v>
       </c>
-      <c r="M251" t="str">
-        <v>#### Level 4 Element 245</v>
-      </c>
-    </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A252" t="s">
         <v>172</v>
       </c>
@@ -10432,11 +9944,8 @@
       <c r="C252" t="s">
         <v>106</v>
       </c>
-      <c r="M252" t="str">
-        <v>##### Level 5 Element 246</v>
-      </c>
-    </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A253" t="s">
         <v>172</v>
       </c>
@@ -10446,11 +9955,8 @@
       <c r="C253" t="s">
         <v>107</v>
       </c>
-      <c r="M253" t="str">
-        <v>##### Level 5 Element 247</v>
-      </c>
-    </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A254" t="s">
         <v>172</v>
       </c>
@@ -10460,11 +9966,8 @@
       <c r="C254" t="s">
         <v>108</v>
       </c>
-      <c r="M254" t="str">
-        <v>##### Level 5 Element 248</v>
-      </c>
-    </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A255" t="s">
         <v>172</v>
       </c>
@@ -10474,11 +9977,8 @@
       <c r="C255" t="s">
         <v>109</v>
       </c>
-      <c r="M255" t="str">
-        <v>##### Level 5 Element 249</v>
-      </c>
-    </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A256" t="s">
         <v>172</v>
       </c>
@@ -10488,11 +9988,8 @@
       <c r="C256" t="s">
         <v>110</v>
       </c>
-      <c r="M256" t="str">
-        <v>##### Level 5 Element 250</v>
-      </c>
-    </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A257" t="s">
         <v>172</v>
       </c>
@@ -10502,11 +9999,8 @@
       <c r="C257" t="s">
         <v>111</v>
       </c>
-      <c r="M257" t="str">
-        <v>#### Level 4 Element 251</v>
-      </c>
-    </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A258" t="s">
         <v>172</v>
       </c>
@@ -10516,11 +10010,8 @@
       <c r="C258" t="s">
         <v>112</v>
       </c>
-      <c r="M258" t="str">
-        <v>##### Level 5 Element 252</v>
-      </c>
-    </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A259" t="s">
         <v>172</v>
       </c>
@@ -10530,11 +10021,8 @@
       <c r="C259" t="s">
         <v>187</v>
       </c>
-      <c r="M259" t="str">
-        <v>##### Level 5 Element 253</v>
-      </c>
-    </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A260" t="s">
         <v>172</v>
       </c>
@@ -10544,11 +10032,8 @@
       <c r="C260" t="s">
         <v>114</v>
       </c>
-      <c r="M260" t="str">
-        <v>##### Level 5 Element 254</v>
-      </c>
-    </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A261" t="s">
         <v>172</v>
       </c>
@@ -10558,11 +10043,8 @@
       <c r="C261" t="s">
         <v>115</v>
       </c>
-      <c r="M261" t="str">
-        <v>##### Level 5 Element 255</v>
-      </c>
-    </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A262" t="s">
         <v>172</v>
       </c>
@@ -10572,11 +10054,8 @@
       <c r="C262" t="s">
         <v>116</v>
       </c>
-      <c r="M262" t="str">
-        <v>##### Level 5 Element 256</v>
-      </c>
-    </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A263" t="s">
         <v>172</v>
       </c>
@@ -10586,11 +10065,8 @@
       <c r="C263" t="s">
         <v>117</v>
       </c>
-      <c r="M263" t="str">
-        <v>#### Level 4 Element 257</v>
-      </c>
-    </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A264" t="s">
         <v>172</v>
       </c>
@@ -10600,11 +10076,8 @@
       <c r="C264" t="s">
         <v>118</v>
       </c>
-      <c r="M264" t="str">
-        <v>### Level 3 Element 258</v>
-      </c>
-    </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A265" t="s">
         <v>172</v>
       </c>
@@ -10614,11 +10087,8 @@
       <c r="C265" t="s">
         <v>119</v>
       </c>
-      <c r="M265" t="str">
-        <v>#### Level 4 Element 259</v>
-      </c>
-    </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A266" t="s">
         <v>172</v>
       </c>
@@ -10628,11 +10098,8 @@
       <c r="C266" t="s">
         <v>109</v>
       </c>
-      <c r="M266" t="str">
-        <v>##### Level 5 Element 260</v>
-      </c>
-    </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A267" t="s">
         <v>172</v>
       </c>
@@ -10642,11 +10109,8 @@
       <c r="C267" t="s">
         <v>110</v>
       </c>
-      <c r="M267" t="str">
-        <v>##### Level 5 Element 261</v>
-      </c>
-    </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A268" t="s">
         <v>172</v>
       </c>
@@ -10656,11 +10120,8 @@
       <c r="C268" t="s">
         <v>111</v>
       </c>
-      <c r="M268" t="str">
-        <v>##### Level 5 Element 262</v>
-      </c>
-    </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A269" t="s">
         <v>172</v>
       </c>
@@ -10670,11 +10131,8 @@
       <c r="C269" t="s">
         <v>112</v>
       </c>
-      <c r="M269" t="str">
-        <v>##### Level 5 Element 263</v>
-      </c>
-    </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A270" t="s">
         <v>172</v>
       </c>
@@ -10684,11 +10142,8 @@
       <c r="C270" t="s">
         <v>113</v>
       </c>
-      <c r="M270" t="str">
-        <v>#### Level 4 Element 264</v>
-      </c>
-    </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A271" t="s">
         <v>172</v>
       </c>
@@ -10698,11 +10153,8 @@
       <c r="C271" t="s">
         <v>114</v>
       </c>
-      <c r="M271" t="str">
-        <v>##### Level 5 Element 265</v>
-      </c>
-    </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A272" t="s">
         <v>172</v>
       </c>
@@ -10712,11 +10164,8 @@
       <c r="C272" t="s">
         <v>115</v>
       </c>
-      <c r="M272" t="str">
-        <v>##### Level 5 Element 266</v>
-      </c>
-    </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A273" t="s">
         <v>172</v>
       </c>
@@ -10726,11 +10175,8 @@
       <c r="C273" t="s">
         <v>116</v>
       </c>
-      <c r="M273" t="str">
-        <v>##### Level 5 Element 267</v>
-      </c>
-    </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A274" t="s">
         <v>172</v>
       </c>
@@ -10740,11 +10186,8 @@
       <c r="C274" t="s">
         <v>117</v>
       </c>
-      <c r="M274" t="str">
-        <v>##### Level 5 Element 268</v>
-      </c>
-    </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A275" t="s">
         <v>172</v>
       </c>
@@ -10754,11 +10197,8 @@
       <c r="C275" t="s">
         <v>118</v>
       </c>
-      <c r="M275" t="str">
-        <v>##### Level 5 Element 269</v>
-      </c>
-    </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A276" t="s">
         <v>172</v>
       </c>
@@ -10768,11 +10208,8 @@
       <c r="C276" t="s">
         <v>120</v>
       </c>
-      <c r="M276" t="str">
-        <v>##### Level 5 Element 270</v>
-      </c>
-    </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A277" t="s">
         <v>172</v>
       </c>
@@ -10782,11 +10219,8 @@
       <c r="C277" t="s">
         <v>121</v>
       </c>
-      <c r="M277" t="str">
-        <v>##### Level 5 Element 271</v>
-      </c>
-    </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A278" t="s">
         <v>172</v>
       </c>
@@ -10796,11 +10230,8 @@
       <c r="C278" t="s">
         <v>188</v>
       </c>
-      <c r="M278" t="str">
-        <v>##### Level 5 Element 272</v>
-      </c>
-    </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A279" t="s">
         <v>172</v>
       </c>
@@ -10810,11 +10241,8 @@
       <c r="C279" t="s">
         <v>189</v>
       </c>
-      <c r="M279" t="str">
-        <v>##### Level 5 Element 273</v>
-      </c>
-    </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A280" t="s">
         <v>172</v>
       </c>
@@ -10824,11 +10252,8 @@
       <c r="C280" t="s">
         <v>190</v>
       </c>
-      <c r="M280" t="str">
-        <v>##### Level 5 Element 274</v>
-      </c>
-    </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A281" t="s">
         <v>172</v>
       </c>
@@ -10838,11 +10263,8 @@
       <c r="C281" t="s">
         <v>125</v>
       </c>
-      <c r="M281" t="str">
-        <v>#### Level 4 Element 275</v>
-      </c>
-    </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A282" t="s">
         <v>172</v>
       </c>
@@ -10852,11 +10274,8 @@
       <c r="C282" t="s">
         <v>126</v>
       </c>
-      <c r="M282" t="str">
-        <v>##### Level 5 Element 276</v>
-      </c>
-    </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A283" t="s">
         <v>172</v>
       </c>
@@ -10866,11 +10285,8 @@
       <c r="C283" t="s">
         <v>127</v>
       </c>
-      <c r="M283" t="str">
-        <v>##### Level 5 Element 277</v>
-      </c>
-    </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A284" t="s">
         <v>172</v>
       </c>
@@ -10880,11 +10296,8 @@
       <c r="C284" t="s">
         <v>128</v>
       </c>
-      <c r="M284" t="str">
-        <v>##### Level 5 Element 278</v>
-      </c>
-    </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A285" t="s">
         <v>172</v>
       </c>
@@ -10894,11 +10307,8 @@
       <c r="C285" t="s">
         <v>129</v>
       </c>
-      <c r="M285" t="str">
-        <v>##### Level 5 Element 279</v>
-      </c>
-    </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A286" t="s">
         <v>172</v>
       </c>
@@ -10908,11 +10318,8 @@
       <c r="C286" t="s">
         <v>130</v>
       </c>
-      <c r="M286" t="str">
-        <v>##### Level 5 Element 280</v>
-      </c>
-    </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A287" t="s">
         <v>172</v>
       </c>
@@ -10922,11 +10329,8 @@
       <c r="C287" t="s">
         <v>131</v>
       </c>
-      <c r="M287" t="str">
-        <v>##### Level 5 Element 281</v>
-      </c>
-    </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A288" t="s">
         <v>191</v>
       </c>
@@ -10936,11 +10340,8 @@
       <c r="C288" t="s">
         <v>192</v>
       </c>
-      <c r="M288" t="str">
-        <v>##### Level 5 Element 282</v>
-      </c>
-    </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A289" t="s">
         <v>191</v>
       </c>
@@ -10950,11 +10351,8 @@
       <c r="C289" t="s">
         <v>193</v>
       </c>
-      <c r="M289" t="str">
-        <v>##### Level 5 Element 283</v>
-      </c>
-    </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A290" t="s">
         <v>191</v>
       </c>
@@ -10964,11 +10362,8 @@
       <c r="C290" t="s">
         <v>194</v>
       </c>
-      <c r="M290" t="str">
-        <v>#### Level 4 Element 284</v>
-      </c>
-    </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A291" t="s">
         <v>191</v>
       </c>
@@ -10978,11 +10373,8 @@
       <c r="C291" t="s">
         <v>195</v>
       </c>
-      <c r="M291" t="str">
-        <v>##### Level 5 Element 285</v>
-      </c>
-    </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A292" t="s">
         <v>191</v>
       </c>
@@ -10992,11 +10384,8 @@
       <c r="C292" t="s">
         <v>196</v>
       </c>
-      <c r="M292" t="str">
-        <v>##### Level 5 Element 286</v>
-      </c>
-    </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A293" t="s">
         <v>191</v>
       </c>
@@ -11006,11 +10395,8 @@
       <c r="C293" t="s">
         <v>7</v>
       </c>
-      <c r="M293" t="str">
-        <v>##### Level 5 Element 287</v>
-      </c>
-    </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A294" t="s">
         <v>191</v>
       </c>
@@ -11020,11 +10406,8 @@
       <c r="C294" t="s">
         <v>197</v>
       </c>
-      <c r="M294" t="str">
-        <v>##### Level 5 Element 288</v>
-      </c>
-    </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A295" t="s">
         <v>191</v>
       </c>
@@ -11034,11 +10417,8 @@
       <c r="C295" t="s">
         <v>198</v>
       </c>
-      <c r="M295" t="str">
-        <v>##### Level 5 Element 289</v>
-      </c>
-    </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A296" t="s">
         <v>191</v>
       </c>
@@ -11048,11 +10428,8 @@
       <c r="C296" t="s">
         <v>199</v>
       </c>
-      <c r="M296" t="str">
-        <v>##### Level 5 Element 290</v>
-      </c>
-    </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A297" t="s">
         <v>191</v>
       </c>
@@ -11062,11 +10439,8 @@
       <c r="C297" t="s">
         <v>200</v>
       </c>
-      <c r="M297" t="str">
-        <v>##### Level 5 Element 291</v>
-      </c>
-    </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A298" t="s">
         <v>191</v>
       </c>
@@ -11076,11 +10450,8 @@
       <c r="C298" t="s">
         <v>201</v>
       </c>
-      <c r="M298" t="str">
-        <v>##### Level 5 Element 292</v>
-      </c>
-    </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A299" t="s">
         <v>191</v>
       </c>
@@ -11090,11 +10461,8 @@
       <c r="C299" t="s">
         <v>202</v>
       </c>
-      <c r="M299" t="str">
-        <v>##### Level 5 Element 293</v>
-      </c>
-    </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A300" t="s">
         <v>191</v>
       </c>
@@ -11104,11 +10472,8 @@
       <c r="C300" t="s">
         <v>203</v>
       </c>
-      <c r="M300" t="str">
-        <v>##### Level 5 Element 294</v>
-      </c>
-    </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A301" t="s">
         <v>191</v>
       </c>
@@ -11118,11 +10483,8 @@
       <c r="C301" t="s">
         <v>204</v>
       </c>
-      <c r="M301" t="str">
-        <v>##### Level 5 Element 295</v>
-      </c>
-    </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A302" t="s">
         <v>191</v>
       </c>
@@ -11132,11 +10494,8 @@
       <c r="C302" t="s">
         <v>205</v>
       </c>
-      <c r="M302" t="str">
-        <v>##### Level 5 Element 296</v>
-      </c>
-    </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A303" t="s">
         <v>191</v>
       </c>
@@ -11146,11 +10505,8 @@
       <c r="C303" t="s">
         <v>206</v>
       </c>
-      <c r="M303" t="str">
-        <v>##### Level 5 Element 297</v>
-      </c>
-    </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A304" t="s">
         <v>191</v>
       </c>
@@ -11160,11 +10516,8 @@
       <c r="C304" t="s">
         <v>207</v>
       </c>
-      <c r="M304" t="str">
-        <v>#### Level 4 Element 298</v>
-      </c>
-    </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A305" t="s">
         <v>191</v>
       </c>
@@ -11174,11 +10527,8 @@
       <c r="C305" t="s">
         <v>208</v>
       </c>
-      <c r="M305" t="str">
-        <v>##### Level 5 Element 299</v>
-      </c>
-    </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A306" t="s">
         <v>191</v>
       </c>
@@ -11188,11 +10538,8 @@
       <c r="C306" t="s">
         <v>209</v>
       </c>
-      <c r="M306" t="str">
-        <v>##### Level 5 Element 300</v>
-      </c>
-    </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A307" t="s">
         <v>191</v>
       </c>
@@ -11202,11 +10549,8 @@
       <c r="C307" t="s">
         <v>210</v>
       </c>
-      <c r="M307" t="str">
-        <v>##### Level 5 Element 301</v>
-      </c>
-    </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A308" t="s">
         <v>191</v>
       </c>
@@ -11216,11 +10560,8 @@
       <c r="C308" t="s">
         <v>211</v>
       </c>
-      <c r="M308" t="str">
-        <v>##### Level 5 Element 302</v>
-      </c>
-    </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A309" t="s">
         <v>191</v>
       </c>
@@ -11230,11 +10571,8 @@
       <c r="C309" t="s">
         <v>212</v>
       </c>
-      <c r="M309" t="str">
-        <v>##### Level 5 Element 303</v>
-      </c>
-    </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A310" t="s">
         <v>191</v>
       </c>
@@ -11244,11 +10582,8 @@
       <c r="C310" t="s">
         <v>213</v>
       </c>
-      <c r="M310" t="str">
-        <v>##### Level 5 Element 304</v>
-      </c>
-    </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A311" t="s">
         <v>191</v>
       </c>
@@ -11258,11 +10593,8 @@
       <c r="C311" t="s">
         <v>214</v>
       </c>
-      <c r="M311" t="str">
-        <v>##### Level 5 Element 305</v>
-      </c>
-    </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A312" t="s">
         <v>191</v>
       </c>
@@ -11272,11 +10604,8 @@
       <c r="C312" t="s">
         <v>215</v>
       </c>
-      <c r="M312" t="str">
-        <v>##### Level 5 Element 306</v>
-      </c>
-    </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A313" t="s">
         <v>191</v>
       </c>
@@ -11286,11 +10615,8 @@
       <c r="C313" t="s">
         <v>216</v>
       </c>
-      <c r="M313" t="str">
-        <v>#### Level 4 Element 307</v>
-      </c>
-    </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A314" t="s">
         <v>191</v>
       </c>
@@ -11300,11 +10626,8 @@
       <c r="C314" t="s">
         <v>217</v>
       </c>
-      <c r="M314" t="str">
-        <v>##### Level 5 Element 308</v>
-      </c>
-    </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A315" t="s">
         <v>191</v>
       </c>
@@ -11314,11 +10637,8 @@
       <c r="C315" t="s">
         <v>218</v>
       </c>
-      <c r="M315" t="str">
-        <v>##### Level 5 Element 309</v>
-      </c>
-    </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A316" t="s">
         <v>191</v>
       </c>
@@ -11328,11 +10648,8 @@
       <c r="C316" t="s">
         <v>219</v>
       </c>
-      <c r="M316" t="str">
-        <v>##### Level 5 Element 310</v>
-      </c>
-    </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A317" t="s">
         <v>191</v>
       </c>
@@ -11342,11 +10659,8 @@
       <c r="C317" t="s">
         <v>220</v>
       </c>
-      <c r="M317" t="str">
-        <v>##### Level 5 Element 311</v>
-      </c>
-    </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A318" t="s">
         <v>191</v>
       </c>
@@ -11356,11 +10670,8 @@
       <c r="C318" t="s">
         <v>221</v>
       </c>
-      <c r="M318" t="str">
-        <v>##### Level 5 Element 312</v>
-      </c>
-    </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A319" t="s">
         <v>191</v>
       </c>
@@ -11370,11 +10681,8 @@
       <c r="C319" t="s">
         <v>222</v>
       </c>
-      <c r="M319" t="str">
-        <v>##### Level 5 Element 313</v>
-      </c>
-    </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A320" t="s">
         <v>191</v>
       </c>
@@ -11384,11 +10692,8 @@
       <c r="C320" t="s">
         <v>223</v>
       </c>
-      <c r="M320" t="str">
-        <v>##### Level 5 Element 314</v>
-      </c>
-    </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A321" t="s">
         <v>191</v>
       </c>
@@ -11398,11 +10703,8 @@
       <c r="C321" t="s">
         <v>224</v>
       </c>
-      <c r="M321" t="str">
-        <v>##### Level 5 Element 315</v>
-      </c>
-    </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A322" t="s">
         <v>191</v>
       </c>
@@ -11412,11 +10714,8 @@
       <c r="C322" t="s">
         <v>225</v>
       </c>
-      <c r="M322" t="str">
-        <v>##### Level 5 Element 316</v>
-      </c>
-    </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A323" t="s">
         <v>191</v>
       </c>
@@ -11426,11 +10725,8 @@
       <c r="C323" t="s">
         <v>226</v>
       </c>
-      <c r="M323" t="str">
-        <v>#### Level 4 Element 317</v>
-      </c>
-    </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A324" t="s">
         <v>191</v>
       </c>
@@ -11440,11 +10736,8 @@
       <c r="C324" t="s">
         <v>227</v>
       </c>
-      <c r="M324" t="str">
-        <v>##### Level 5 Element 318</v>
-      </c>
-    </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A325" t="s">
         <v>191</v>
       </c>
@@ -11454,11 +10747,8 @@
       <c r="C325" t="s">
         <v>228</v>
       </c>
-      <c r="M325" t="str">
-        <v>##### Level 5 Element 319</v>
-      </c>
-    </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A326" t="s">
         <v>191</v>
       </c>
@@ -11468,11 +10758,8 @@
       <c r="C326" t="s">
         <v>229</v>
       </c>
-      <c r="M326" t="str">
-        <v>##### Level 5 Element 320</v>
-      </c>
-    </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A327" t="s">
         <v>191</v>
       </c>
@@ -11482,11 +10769,8 @@
       <c r="C327" t="s">
         <v>230</v>
       </c>
-      <c r="M327" t="str">
-        <v>##### Level 5 Element 321</v>
-      </c>
-    </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A328" t="s">
         <v>191</v>
       </c>
@@ -11496,11 +10780,8 @@
       <c r="C328" t="s">
         <v>231</v>
       </c>
-      <c r="M328" t="str">
-        <v>##### Level 5 Element 322</v>
-      </c>
-    </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A329" t="s">
         <v>191</v>
       </c>
@@ -11510,11 +10791,8 @@
       <c r="C329" t="s">
         <v>197</v>
       </c>
-      <c r="M329" t="str">
-        <v>##### Level 5 Element 323</v>
-      </c>
-    </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A330" t="s">
         <v>191</v>
       </c>
@@ -11524,11 +10802,8 @@
       <c r="C330" t="s">
         <v>232</v>
       </c>
-      <c r="M330" t="str">
-        <v>##### Level 5 Element 324</v>
-      </c>
-    </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A331" t="s">
         <v>191</v>
       </c>
@@ -11538,11 +10813,8 @@
       <c r="C331" t="s">
         <v>233</v>
       </c>
-      <c r="M331" t="str">
-        <v>#### Level 4 Element 325</v>
-      </c>
-    </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A332" t="s">
         <v>191</v>
       </c>
@@ -11552,11 +10824,8 @@
       <c r="C332" t="s">
         <v>234</v>
       </c>
-      <c r="M332" t="str">
-        <v>##### Level 5 Element 326</v>
-      </c>
-    </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A333" t="s">
         <v>191</v>
       </c>
@@ -11566,11 +10835,8 @@
       <c r="C333" t="s">
         <v>235</v>
       </c>
-      <c r="M333" t="str">
-        <v>##### Level 5 Element 327</v>
-      </c>
-    </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A334" t="s">
         <v>191</v>
       </c>
@@ -11580,11 +10846,8 @@
       <c r="C334" t="s">
         <v>236</v>
       </c>
-      <c r="M334" t="str">
-        <v>##### Level 5 Element 328</v>
-      </c>
-    </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A335" t="s">
         <v>191</v>
       </c>
@@ -11594,11 +10857,8 @@
       <c r="C335" t="s">
         <v>237</v>
       </c>
-      <c r="M335" t="str">
-        <v>##### Level 5 Element 329</v>
-      </c>
-    </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A336" t="s">
         <v>191</v>
       </c>
@@ -11608,11 +10868,8 @@
       <c r="C336" t="s">
         <v>238</v>
       </c>
-      <c r="M336" t="str">
-        <v>#### Level 4 Element 330</v>
-      </c>
-    </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A337" t="s">
         <v>191</v>
       </c>
@@ -11622,11 +10879,8 @@
       <c r="C337" t="s">
         <v>239</v>
       </c>
-      <c r="M337" t="str">
-        <v>#### Level 4 Element 331</v>
-      </c>
-    </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A338" t="s">
         <v>191</v>
       </c>
@@ -11636,11 +10890,8 @@
       <c r="C338" t="s">
         <v>240</v>
       </c>
-      <c r="M338" t="str">
-        <v>### Level 3 Element 332</v>
-      </c>
-    </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A339" t="s">
         <v>191</v>
       </c>
@@ -11650,11 +10901,8 @@
       <c r="C339" t="s">
         <v>241</v>
       </c>
-      <c r="M339" t="str">
-        <v>#### Level 4 Element 333</v>
-      </c>
-    </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A340" t="s">
         <v>191</v>
       </c>
@@ -11664,11 +10912,8 @@
       <c r="C340" t="s">
         <v>242</v>
       </c>
-      <c r="M340" t="str">
-        <v>##### Level 5 Element 334</v>
-      </c>
-    </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A341" t="s">
         <v>191</v>
       </c>
@@ -11678,11 +10923,8 @@
       <c r="C341" t="s">
         <v>243</v>
       </c>
-      <c r="M341" t="str">
-        <v>##### Level 5 Element 335</v>
-      </c>
-    </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A342" t="s">
         <v>191</v>
       </c>
@@ -11692,11 +10934,8 @@
       <c r="C342" t="s">
         <v>244</v>
       </c>
-      <c r="M342" t="str">
-        <v>##### Level 5 Element 336</v>
-      </c>
-    </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A343" t="s">
         <v>191</v>
       </c>
@@ -11706,11 +10945,8 @@
       <c r="C343" t="s">
         <v>49</v>
       </c>
-      <c r="M343" t="str">
-        <v>##### Level 5 Element 337</v>
-      </c>
-    </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A344" t="s">
         <v>191</v>
       </c>
@@ -11720,11 +10956,8 @@
       <c r="C344" t="s">
         <v>245</v>
       </c>
-      <c r="M344" t="str">
-        <v>#### Level 4 Element 338</v>
-      </c>
-    </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A345" t="s">
         <v>191</v>
       </c>
@@ -11734,11 +10967,8 @@
       <c r="C345" t="s">
         <v>246</v>
       </c>
-      <c r="M345" t="str">
-        <v>#### Level 4 Element 339</v>
-      </c>
-    </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A346" t="s">
         <v>191</v>
       </c>
@@ -11748,11 +10978,8 @@
       <c r="C346" t="s">
         <v>247</v>
       </c>
-      <c r="M346" t="str">
-        <v>##### Level 5 Element 340</v>
-      </c>
-    </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A347" t="s">
         <v>191</v>
       </c>
@@ -11762,11 +10989,8 @@
       <c r="C347" t="s">
         <v>54</v>
       </c>
-      <c r="M347" t="str">
-        <v>##### Level 5 Element 341</v>
-      </c>
-    </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A348" t="s">
         <v>191</v>
       </c>
@@ -11776,11 +11000,8 @@
       <c r="C348" t="s">
         <v>248</v>
       </c>
-      <c r="M348" t="str">
-        <v>### Level 3 Element 342</v>
-      </c>
-    </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A349" t="s">
         <v>191</v>
       </c>
@@ -11790,11 +11011,8 @@
       <c r="C349" t="s">
         <v>249</v>
       </c>
-      <c r="M349" t="str">
-        <v>#### Level 4 Element 343</v>
-      </c>
-    </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A350" t="s">
         <v>191</v>
       </c>
@@ -11804,11 +11022,8 @@
       <c r="C350" t="s">
         <v>250</v>
       </c>
-      <c r="M350" t="str">
-        <v>##### Level 5 Element 344</v>
-      </c>
-    </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A351" t="s">
         <v>191</v>
       </c>
@@ -11818,11 +11033,8 @@
       <c r="C351" t="s">
         <v>44</v>
       </c>
-      <c r="M351" t="str">
-        <v>##### Level 5 Element 345</v>
-      </c>
-    </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A352" t="s">
         <v>191</v>
       </c>
@@ -11832,11 +11044,8 @@
       <c r="C352" t="s">
         <v>46</v>
       </c>
-      <c r="M352" t="str">
-        <v>##### Level 5 Element 346</v>
-      </c>
-    </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A353" t="s">
         <v>191</v>
       </c>
@@ -11846,11 +11055,8 @@
       <c r="C353" t="s">
         <v>251</v>
       </c>
-      <c r="M353" t="str">
-        <v>##### Level 5 Element 347</v>
-      </c>
-    </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A354" t="s">
         <v>191</v>
       </c>
@@ -11860,11 +11066,8 @@
       <c r="C354" t="s">
         <v>252</v>
       </c>
-      <c r="M354" t="str">
-        <v>#### Level 4 Element 348</v>
-      </c>
-    </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A355" t="s">
         <v>191</v>
       </c>
@@ -11874,11 +11077,8 @@
       <c r="C355" t="s">
         <v>253</v>
       </c>
-      <c r="M355" t="str">
-        <v>##### Level 5 Element 349</v>
-      </c>
-    </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A356" t="s">
         <v>191</v>
       </c>
@@ -11888,11 +11088,8 @@
       <c r="C356" t="s">
         <v>254</v>
       </c>
-      <c r="M356" t="str">
-        <v>##### Level 5 Element 350</v>
-      </c>
-    </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A357" t="s">
         <v>191</v>
       </c>
@@ -11902,11 +11099,8 @@
       <c r="C357" t="s">
         <v>255</v>
       </c>
-      <c r="M357" t="str">
-        <v>##### Level 5 Element 351</v>
-      </c>
-    </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A358" t="s">
         <v>191</v>
       </c>
@@ -11916,11 +11110,8 @@
       <c r="C358" t="s">
         <v>256</v>
       </c>
-      <c r="M358" t="str">
-        <v>##### Level 5 Element 352</v>
-      </c>
-    </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A359" t="s">
         <v>191</v>
       </c>
@@ -11930,11 +11121,8 @@
       <c r="C359" t="s">
         <v>257</v>
       </c>
-      <c r="M359" t="str">
-        <v>##### Level 5 Element 353</v>
-      </c>
-    </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A360" t="s">
         <v>191</v>
       </c>
@@ -11944,11 +11132,8 @@
       <c r="C360" t="s">
         <v>258</v>
       </c>
-      <c r="M360" t="str">
-        <v>#### Level 4 Element 354</v>
-      </c>
-    </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A361" t="s">
         <v>191</v>
       </c>
@@ -11958,11 +11143,8 @@
       <c r="C361" t="s">
         <v>237</v>
       </c>
-      <c r="M361" t="str">
-        <v>### Level 3 Element 355</v>
-      </c>
-    </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A362" t="s">
         <v>191</v>
       </c>
@@ -11972,11 +11154,8 @@
       <c r="C362" t="s">
         <v>259</v>
       </c>
-      <c r="M362" t="str">
-        <v>#### Level 4 Element 356</v>
-      </c>
-    </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A363" t="s">
         <v>191</v>
       </c>
@@ -11986,11 +11165,8 @@
       <c r="C363" t="s">
         <v>260</v>
       </c>
-      <c r="M363" t="str">
-        <v>##### Level 5 Element 357</v>
-      </c>
-    </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A364" t="s">
         <v>191</v>
       </c>
@@ -12000,11 +11176,8 @@
       <c r="C364" t="s">
         <v>261</v>
       </c>
-      <c r="M364" t="str">
-        <v>##### Level 5 Element 358</v>
-      </c>
-    </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A365" t="s">
         <v>191</v>
       </c>
@@ -12014,11 +11187,8 @@
       <c r="C365" t="s">
         <v>262</v>
       </c>
-      <c r="M365" t="str">
-        <v>##### Level 5 Element 359</v>
-      </c>
-    </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A366" t="s">
         <v>191</v>
       </c>
@@ -12028,11 +11198,8 @@
       <c r="C366" t="s">
         <v>44</v>
       </c>
-      <c r="M366" t="str">
-        <v>##### Level 5 Element 360</v>
-      </c>
-    </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A367" t="s">
         <v>191</v>
       </c>
@@ -12042,11 +11209,8 @@
       <c r="C367" t="s">
         <v>263</v>
       </c>
-      <c r="M367" t="str">
-        <v>#### Level 4 Element 361</v>
-      </c>
-    </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A368" t="s">
         <v>191</v>
       </c>
@@ -12056,11 +11220,8 @@
       <c r="C368" t="s">
         <v>264</v>
       </c>
-      <c r="M368" t="str">
-        <v>##### Level 5 Element 362</v>
-      </c>
-    </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A369" t="s">
         <v>191</v>
       </c>
@@ -12070,11 +11231,8 @@
       <c r="C369" t="s">
         <v>265</v>
       </c>
-      <c r="M369" t="str">
-        <v>##### Level 5 Element 363</v>
-      </c>
-    </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A370" t="s">
         <v>191</v>
       </c>
@@ -12084,11 +11242,8 @@
       <c r="C370" t="s">
         <v>183</v>
       </c>
-      <c r="M370" t="str">
-        <v>##### Level 5 Element 364</v>
-      </c>
-    </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A371" t="s">
         <v>191</v>
       </c>
@@ -12098,11 +11253,8 @@
       <c r="C371" t="s">
         <v>66</v>
       </c>
-      <c r="M371" t="str">
-        <v>##### Level 5 Element 365</v>
-      </c>
-    </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A372" t="s">
         <v>191</v>
       </c>
@@ -12112,11 +11264,8 @@
       <c r="C372" t="s">
         <v>67</v>
       </c>
-      <c r="M372" t="str">
-        <v>##### Level 5 Element 366</v>
-      </c>
-    </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A373" t="s">
         <v>191</v>
       </c>
@@ -12126,11 +11275,8 @@
       <c r="C373" t="s">
         <v>68</v>
       </c>
-      <c r="M373" t="str">
-        <v>##### Level 5 Element 367</v>
-      </c>
-    </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A374" t="s">
         <v>191</v>
       </c>
@@ -12140,11 +11286,8 @@
       <c r="C374" t="s">
         <v>69</v>
       </c>
-      <c r="M374" t="str">
-        <v>##### Level 5 Element 368</v>
-      </c>
-    </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A375" t="s">
         <v>191</v>
       </c>
@@ -12154,11 +11297,8 @@
       <c r="C375" t="s">
         <v>70</v>
       </c>
-      <c r="M375" t="str">
-        <v>##### Level 5 Element 369</v>
-      </c>
-    </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A376" t="s">
         <v>191</v>
       </c>
@@ -12168,11 +11308,8 @@
       <c r="C376" t="s">
         <v>71</v>
       </c>
-      <c r="M376" t="str">
-        <v>##### Level 5 Element 370</v>
-      </c>
-    </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A377" t="s">
         <v>191</v>
       </c>
@@ -12182,11 +11319,8 @@
       <c r="C377" t="s">
         <v>72</v>
       </c>
-      <c r="M377" t="str">
-        <v>#### Level 4 Element 371</v>
-      </c>
-    </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A378" t="s">
         <v>191</v>
       </c>
@@ -12196,11 +11330,8 @@
       <c r="C378" t="s">
         <v>73</v>
       </c>
-      <c r="M378" t="str">
-        <v>#### Level 4 Element 372</v>
-      </c>
-    </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A379" t="s">
         <v>191</v>
       </c>
@@ -12210,11 +11341,8 @@
       <c r="C379" t="s">
         <v>74</v>
       </c>
-      <c r="M379" t="str">
-        <v>##### Level 5 Element 373</v>
-      </c>
-    </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A380" t="s">
         <v>191</v>
       </c>
@@ -12224,11 +11352,8 @@
       <c r="C380" t="s">
         <v>75</v>
       </c>
-      <c r="M380" t="str">
-        <v>##### Level 5 Element 374</v>
-      </c>
-    </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A381" t="s">
         <v>191</v>
       </c>
@@ -12238,11 +11363,8 @@
       <c r="C381" t="s">
         <v>76</v>
       </c>
-      <c r="M381" t="str">
-        <v>##### Level 5 Element 375</v>
-      </c>
-    </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A382" t="s">
         <v>191</v>
       </c>
@@ -12252,11 +11374,8 @@
       <c r="C382" t="s">
         <v>77</v>
       </c>
-      <c r="M382" t="str">
-        <v>##### Level 5 Element 376</v>
-      </c>
-    </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A383" t="s">
         <v>191</v>
       </c>
@@ -12266,11 +11385,8 @@
       <c r="C383" t="s">
         <v>78</v>
       </c>
-      <c r="M383" t="str">
-        <v>##### Level 5 Element 377</v>
-      </c>
-    </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A384" t="s">
         <v>191</v>
       </c>
@@ -12280,11 +11396,8 @@
       <c r="C384" t="s">
         <v>79</v>
       </c>
-      <c r="M384" t="str">
-        <v>##### Level 5 Element 378</v>
-      </c>
-    </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A385" t="s">
         <v>191</v>
       </c>
@@ -12294,11 +11407,8 @@
       <c r="C385" t="s">
         <v>184</v>
       </c>
-      <c r="M385" t="str">
-        <v>#### Level 4 Element 379</v>
-      </c>
-    </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A386" t="s">
         <v>191</v>
       </c>
@@ -12308,11 +11418,8 @@
       <c r="C386" t="s">
         <v>185</v>
       </c>
-      <c r="M386" t="str">
-        <v>##### Level 5 Element 380</v>
-      </c>
-    </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A387" t="s">
         <v>191</v>
       </c>
@@ -12322,11 +11429,8 @@
       <c r="C387" t="s">
         <v>266</v>
       </c>
-      <c r="M387" t="str">
-        <v>##### Level 5 Element 381</v>
-      </c>
-    </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A388" t="s">
         <v>191</v>
       </c>
@@ -12336,11 +11440,8 @@
       <c r="C388" t="s">
         <v>85</v>
       </c>
-      <c r="M388" t="str">
-        <v>##### Level 5 Element 382</v>
-      </c>
-    </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A389" t="s">
         <v>191</v>
       </c>
@@ -12350,11 +11451,8 @@
       <c r="C389" t="s">
         <v>86</v>
       </c>
-      <c r="M389" t="str">
-        <v>##### Level 5 Element 383</v>
-      </c>
-    </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A390" t="s">
         <v>191</v>
       </c>
@@ -12364,11 +11462,8 @@
       <c r="C390" t="s">
         <v>87</v>
       </c>
-      <c r="M390" t="str">
-        <v>##### Level 5 Element 384</v>
-      </c>
-    </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A391" t="s">
         <v>191</v>
       </c>
@@ -12378,11 +11473,8 @@
       <c r="C391" t="s">
         <v>85</v>
       </c>
-      <c r="M391" t="str">
-        <v>##### Level 5 Element 385</v>
-      </c>
-    </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A392" t="s">
         <v>191</v>
       </c>
@@ -12392,11 +11484,8 @@
       <c r="C392" t="s">
         <v>186</v>
       </c>
-      <c r="M392" t="str">
-        <v>##### Level 5 Element 386</v>
-      </c>
-    </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A393" t="s">
         <v>191</v>
       </c>
@@ -12406,11 +11495,8 @@
       <c r="C393" t="s">
         <v>91</v>
       </c>
-      <c r="M393" t="str">
-        <v>##### Level 5 Element 387</v>
-      </c>
-    </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A394" t="s">
         <v>191</v>
       </c>
@@ -12420,11 +11506,8 @@
       <c r="C394" t="s">
         <v>92</v>
       </c>
-      <c r="M394" t="str">
-        <v>##### Level 5 Element 388</v>
-      </c>
-    </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A395" t="s">
         <v>191</v>
       </c>
@@ -12434,11 +11517,8 @@
       <c r="C395" t="s">
         <v>93</v>
       </c>
-      <c r="M395" t="str">
-        <v>##### Level 5 Element 389</v>
-      </c>
-    </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A396" t="s">
         <v>191</v>
       </c>
@@ -12448,11 +11528,8 @@
       <c r="C396" t="s">
         <v>94</v>
       </c>
-      <c r="M396" t="str">
-        <v>##### Level 5 Element 390</v>
-      </c>
-    </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A397" t="s">
         <v>191</v>
       </c>
@@ -12462,11 +11539,8 @@
       <c r="C397" t="s">
         <v>95</v>
       </c>
-      <c r="M397" t="str">
-        <v>##### Level 5 Element 391</v>
-      </c>
-    </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A398" t="s">
         <v>191</v>
       </c>
@@ -12476,11 +11550,8 @@
       <c r="C398" t="s">
         <v>96</v>
       </c>
-      <c r="M398" t="str">
-        <v>##### Level 5 Element 392</v>
-      </c>
-    </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A399" t="s">
         <v>191</v>
       </c>
@@ -12490,11 +11561,8 @@
       <c r="C399" t="s">
         <v>97</v>
       </c>
-      <c r="M399" t="str">
-        <v>#### Level 4 Element 393</v>
-      </c>
-    </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A400" t="s">
         <v>191</v>
       </c>
@@ -12504,11 +11572,8 @@
       <c r="C400" t="s">
         <v>98</v>
       </c>
-      <c r="M400" t="str">
-        <v>### Level 3 Element 394</v>
-      </c>
-    </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A401" t="s">
         <v>191</v>
       </c>
@@ -12518,11 +11583,8 @@
       <c r="C401" t="s">
         <v>99</v>
       </c>
-      <c r="M401" t="str">
-        <v>#### Level 4 Element 395</v>
-      </c>
-    </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A402" t="s">
         <v>191</v>
       </c>
@@ -12532,11 +11594,8 @@
       <c r="C402" t="s">
         <v>100</v>
       </c>
-      <c r="M402" t="str">
-        <v>##### Level 5 Element 396</v>
-      </c>
-    </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A403" t="s">
         <v>191</v>
       </c>
@@ -12546,11 +11605,8 @@
       <c r="C403" t="s">
         <v>101</v>
       </c>
-      <c r="M403" t="str">
-        <v>##### Level 5 Element 397</v>
-      </c>
-    </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A404" t="s">
         <v>191</v>
       </c>
@@ -12560,11 +11616,8 @@
       <c r="C404" t="s">
         <v>102</v>
       </c>
-      <c r="M404" t="str">
-        <v>##### Level 5 Element 398</v>
-      </c>
-    </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A405" t="s">
         <v>191</v>
       </c>
@@ -12575,7 +11628,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A406" t="s">
         <v>191</v>
       </c>
@@ -12586,7 +11639,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A407" t="s">
         <v>191</v>
       </c>
@@ -12597,7 +11650,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A408" t="s">
         <v>191</v>
       </c>
@@ -12608,7 +11661,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A409" t="s">
         <v>191</v>
       </c>
@@ -12619,7 +11672,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A410" t="s">
         <v>191</v>
       </c>
@@ -12630,7 +11683,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A411" t="s">
         <v>191</v>
       </c>
@@ -12641,7 +11694,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A412" t="s">
         <v>191</v>
       </c>
@@ -12652,7 +11705,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A413" t="s">
         <v>191</v>
       </c>
@@ -12663,7 +11716,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A414" t="s">
         <v>191</v>
       </c>
@@ -12674,7 +11727,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A415" t="s">
         <v>191</v>
       </c>
@@ -12685,7 +11738,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A416" t="s">
         <v>191</v>
       </c>
@@ -39944,7 +38997,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C2355" xr:uid="{395951D0-D528-4A2E-A699-B4DB2F0E81E2}"/>
+  <autoFilter ref="A1:C2893" xr:uid="{395951D0-D528-4A2E-A699-B4DB2F0E81E2}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="L1:M26">
     <sortCondition ref="L1:L26"/>
   </sortState>
@@ -39958,6 +39011,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="b903bf0f-c6a5-4cb2-b1ec-bd1051193607" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b406bd9a-cde6-4834-9a67-0c60db9abeed">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100362E5F718929694AB139DE2736475A59" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="98cd3e5034bebe0c3a38833a2779bc4b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b406bd9a-cde6-4834-9a67-0c60db9abeed" xmlns:ns3="b903bf0f-c6a5-4cb2-b1ec-bd1051193607" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6189a70a425a17a686f51f4c14263ac3" ns2:_="" ns3:_="">
     <xsd:import namespace="b406bd9a-cde6-4834-9a67-0c60db9abeed"/>
@@ -40152,34 +39225,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="b903bf0f-c6a5-4cb2-b1ec-bd1051193607" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b406bd9a-cde6-4834-9a67-0c60db9abeed">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39A6AC82-9DC8-428C-883B-BBCCD3945B91}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA13942D-9F56-4C3A-9488-A89A5A78FE2F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b903bf0f-c6a5-4cb2-b1ec-bd1051193607"/>
+    <ds:schemaRef ds:uri="b406bd9a-cde6-4834-9a67-0c60db9abeed"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD3A8FF2-B8F0-4A99-9DF4-FA240847B8D5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD3A8FF2-B8F0-4A99-9DF4-FA240847B8D5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA13942D-9F56-4C3A-9488-A89A5A78FE2F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39A6AC82-9DC8-428C-883B-BBCCD3945B91}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b406bd9a-cde6-4834-9a67-0c60db9abeed"/>
+    <ds:schemaRef ds:uri="b903bf0f-c6a5-4cb2-b1ec-bd1051193607"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>